--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.27 fix 3</t>
+    <t xml:space="preserve">EA 23.28</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.28</t>
+    <t xml:space="preserve">EA 23.29</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.29</t>
+    <t xml:space="preserve">EA 23.30</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.30</t>
+    <t xml:space="preserve">EA 23.32</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.32</t>
+    <t xml:space="preserve">EA 23.33</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.33</t>
+    <t xml:space="preserve">EA 23.34 fix 3</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.34 fix 3</t>
+    <t xml:space="preserve">EA 23.35 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.35 fix 1</t>
+    <t xml:space="preserve">EA 23.36</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.36</t>
+    <t xml:space="preserve">EA 23.37</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="450">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.37</t>
+    <t xml:space="preserve">EA 23.38</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -752,6 +752,12 @@
     <t xml:space="preserve">114</t>
   </si>
   <si>
+    <t xml:space="preserve">soil block covered with roots </t>
+  </si>
+  <si>
+    <t xml:space="preserve">根に覆われた土のブロック</t>
+  </si>
+  <si>
     <t xml:space="preserve">115</t>
   </si>
   <si>
@@ -1035,6 +1041,12 @@
   </si>
   <si>
     <t xml:space="preserve">167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil block covered with vines </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蔦の生えた土のブロック</t>
   </si>
   <si>
     <t xml:space="preserve">168</t>
@@ -1464,7 +1476,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -1476,10 +1488,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C4" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1495,10 +1507,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C5" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1514,10 +1526,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C6" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1533,10 +1545,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1552,10 +1564,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C8" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -1571,10 +1583,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C9" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -1590,10 +1602,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C10" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1609,10 +1621,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C11" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1628,10 +1640,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C12" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -1647,10 +1659,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C13" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -1666,10 +1678,10 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C14" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -1685,10 +1697,10 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C15" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -1704,10 +1716,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C16" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -1716,7 +1728,7 @@
         <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
@@ -1728,10 +1740,10 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C17" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D17" t="s">
         <v>44</v>
@@ -1747,10 +1759,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C18" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D18" t="s">
         <v>52</v>
@@ -1766,10 +1778,10 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C19" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
@@ -1785,10 +1797,10 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C20" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D20" t="s">
         <v>56</v>
@@ -1804,10 +1816,10 @@
         <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C21" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D21" t="s">
         <v>59</v>
@@ -1823,10 +1835,10 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C22" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
@@ -1842,10 +1854,10 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C23" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
@@ -1861,10 +1873,10 @@
         <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C24" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
@@ -1880,10 +1892,10 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C25" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D25" t="s">
         <v>65</v>
@@ -1899,10 +1911,10 @@
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C26" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D26" t="s">
         <v>52</v>
@@ -1918,10 +1930,10 @@
         <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C27" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D27" t="s">
         <v>69</v>
@@ -1937,10 +1949,10 @@
         <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C28" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D28" t="s">
         <v>72</v>
@@ -1956,10 +1968,10 @@
         <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C29" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D29" t="s">
         <v>75</v>
@@ -1975,10 +1987,10 @@
         <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C30" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -1994,10 +2006,10 @@
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C31" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D31" t="s">
         <v>47</v>
@@ -2006,7 +2018,7 @@
         <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
@@ -2018,10 +2030,10 @@
         <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C32" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D32" t="s">
         <v>80</v>
@@ -2037,10 +2049,10 @@
         <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C33" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D33" t="s">
         <v>83</v>
@@ -2056,10 +2068,10 @@
         <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C34" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D34" t="s">
         <v>83</v>
@@ -2075,10 +2087,10 @@
         <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C35" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D35" t="s">
         <v>83</v>
@@ -2094,10 +2106,10 @@
         <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C36" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D36" t="s">
         <v>88</v>
@@ -2113,10 +2125,10 @@
         <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C37" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D37" t="s">
         <v>91</v>
@@ -2132,10 +2144,10 @@
         <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C38" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D38" t="s">
         <v>94</v>
@@ -2151,10 +2163,10 @@
         <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C39" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D39" t="s">
         <v>97</v>
@@ -2170,10 +2182,10 @@
         <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C40" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
@@ -2189,10 +2201,10 @@
         <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C41" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D41" t="s">
         <v>29</v>
@@ -2208,10 +2220,10 @@
         <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C42" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D42" t="s">
         <v>29</v>
@@ -2227,10 +2239,10 @@
         <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C43" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D43" t="s">
         <v>29</v>
@@ -2246,10 +2258,10 @@
         <v>103</v>
       </c>
       <c r="B44" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C44" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D44" t="s">
         <v>29</v>
@@ -2265,10 +2277,10 @@
         <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C45" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D45" t="s">
         <v>14</v>
@@ -2284,10 +2296,10 @@
         <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C46" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D46" t="s">
         <v>75</v>
@@ -2303,10 +2315,10 @@
         <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C47" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
@@ -2322,10 +2334,10 @@
         <v>107</v>
       </c>
       <c r="B48" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C48" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D48" t="s">
         <v>108</v>
@@ -2334,7 +2346,7 @@
         <v>109</v>
       </c>
       <c r="F48" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G48"/>
       <c r="H48" t="s">
@@ -2346,10 +2358,10 @@
         <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C49" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D49" t="s">
         <v>111</v>
@@ -2365,10 +2377,10 @@
         <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C50" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D50" t="s">
         <v>114</v>
@@ -2384,10 +2396,10 @@
         <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C51" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D51" t="s">
         <v>117</v>
@@ -2403,10 +2415,10 @@
         <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C52" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D52" t="s">
         <v>120</v>
@@ -2422,10 +2434,10 @@
         <v>122</v>
       </c>
       <c r="B53" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C53" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D53" t="s">
         <v>123</v>
@@ -2441,10 +2453,10 @@
         <v>125</v>
       </c>
       <c r="B54" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C54" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D54" t="s">
         <v>126</v>
@@ -2460,10 +2472,10 @@
         <v>128</v>
       </c>
       <c r="B55" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C55" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D55" t="s">
         <v>129</v>
@@ -2479,10 +2491,10 @@
         <v>131</v>
       </c>
       <c r="B56" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C56" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D56" t="s">
         <v>132</v>
@@ -2498,10 +2510,10 @@
         <v>134</v>
       </c>
       <c r="B57" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C57" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D57" t="s">
         <v>135</v>
@@ -2517,10 +2529,10 @@
         <v>137</v>
       </c>
       <c r="B58" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C58" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D58" t="s">
         <v>117</v>
@@ -2536,10 +2548,10 @@
         <v>138</v>
       </c>
       <c r="B59" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C59" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D59" t="s">
         <v>139</v>
@@ -2555,10 +2567,10 @@
         <v>141</v>
       </c>
       <c r="B60" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C60" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D60" t="s">
         <v>142</v>
@@ -2574,10 +2586,10 @@
         <v>144</v>
       </c>
       <c r="B61" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C61" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D61" t="s">
         <v>142</v>
@@ -2593,10 +2605,10 @@
         <v>145</v>
       </c>
       <c r="B62" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C62" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D62" t="s">
         <v>142</v>
@@ -2612,10 +2624,10 @@
         <v>146</v>
       </c>
       <c r="B63" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C63" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D63" t="s">
         <v>147</v>
@@ -2631,10 +2643,10 @@
         <v>149</v>
       </c>
       <c r="B64" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C64" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D64" t="s">
         <v>150</v>
@@ -2650,10 +2662,10 @@
         <v>152</v>
       </c>
       <c r="B65" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C65" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D65" t="s">
         <v>150</v>
@@ -2669,10 +2681,10 @@
         <v>153</v>
       </c>
       <c r="B66" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C66" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D66" t="s">
         <v>150</v>
@@ -2688,10 +2700,10 @@
         <v>154</v>
       </c>
       <c r="B67" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C67" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D67" t="s">
         <v>120</v>
@@ -2707,10 +2719,10 @@
         <v>155</v>
       </c>
       <c r="B68" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C68" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
@@ -2726,10 +2738,10 @@
         <v>156</v>
       </c>
       <c r="B69" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C69" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
@@ -2745,10 +2757,10 @@
         <v>157</v>
       </c>
       <c r="B70" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C70" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D70" t="s">
         <v>158</v>
@@ -2764,10 +2776,10 @@
         <v>160</v>
       </c>
       <c r="B71" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C71" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D71" t="s">
         <v>161</v>
@@ -2783,10 +2795,10 @@
         <v>163</v>
       </c>
       <c r="B72" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C72" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D72" t="s">
         <v>158</v>
@@ -2802,10 +2814,10 @@
         <v>164</v>
       </c>
       <c r="B73" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C73" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D73" t="s">
         <v>165</v>
@@ -2821,10 +2833,10 @@
         <v>167</v>
       </c>
       <c r="B74" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C74" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D74" t="s">
         <v>168</v>
@@ -2840,10 +2852,10 @@
         <v>170</v>
       </c>
       <c r="B75" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C75" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D75" t="s">
         <v>168</v>
@@ -2859,10 +2871,10 @@
         <v>171</v>
       </c>
       <c r="B76" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C76" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D76" t="s">
         <v>158</v>
@@ -2878,10 +2890,10 @@
         <v>172</v>
       </c>
       <c r="B77" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C77" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D77" t="s">
         <v>168</v>
@@ -2897,10 +2909,10 @@
         <v>173</v>
       </c>
       <c r="B78" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C78" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D78" t="s">
         <v>158</v>
@@ -2916,10 +2928,10 @@
         <v>174</v>
       </c>
       <c r="B79" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C79" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D79" t="s">
         <v>168</v>
@@ -2935,10 +2947,10 @@
         <v>175</v>
       </c>
       <c r="B80" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C80" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D80" t="s">
         <v>176</v>
@@ -2954,10 +2966,10 @@
         <v>178</v>
       </c>
       <c r="B81" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C81" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D81" t="s">
         <v>176</v>
@@ -2973,10 +2985,10 @@
         <v>179</v>
       </c>
       <c r="B82" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C82" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D82" t="s">
         <v>176</v>
@@ -2992,10 +3004,10 @@
         <v>180</v>
       </c>
       <c r="B83" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C83" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D83" t="s">
         <v>158</v>
@@ -3011,10 +3023,10 @@
         <v>181</v>
       </c>
       <c r="B84" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C84" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D84" t="s">
         <v>168</v>
@@ -3030,10 +3042,10 @@
         <v>182</v>
       </c>
       <c r="B85" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C85" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D85" t="s">
         <v>168</v>
@@ -3049,10 +3061,10 @@
         <v>183</v>
       </c>
       <c r="B86" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C86" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D86" t="s">
         <v>184</v>
@@ -3068,10 +3080,10 @@
         <v>186</v>
       </c>
       <c r="B87" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C87" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D87" t="s">
         <v>187</v>
@@ -3087,10 +3099,10 @@
         <v>189</v>
       </c>
       <c r="B88" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C88" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D88" t="s">
         <v>187</v>
@@ -3106,10 +3118,10 @@
         <v>190</v>
       </c>
       <c r="B89" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C89" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D89" t="s">
         <v>187</v>
@@ -3125,10 +3137,10 @@
         <v>191</v>
       </c>
       <c r="B90" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C90" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D90" t="s">
         <v>161</v>
@@ -3144,10 +3156,10 @@
         <v>192</v>
       </c>
       <c r="B91" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C91" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D91" t="s">
         <v>193</v>
@@ -3163,10 +3175,10 @@
         <v>195</v>
       </c>
       <c r="B92" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C92" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D92" t="s">
         <v>114</v>
@@ -3182,10 +3194,10 @@
         <v>196</v>
       </c>
       <c r="B93" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C93" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D93" t="s">
         <v>114</v>
@@ -3201,10 +3213,10 @@
         <v>197</v>
       </c>
       <c r="B94" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C94" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D94" t="s">
         <v>198</v>
@@ -3220,10 +3232,10 @@
         <v>200</v>
       </c>
       <c r="B95" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C95" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D95" t="s">
         <v>139</v>
@@ -3239,10 +3251,10 @@
         <v>201</v>
       </c>
       <c r="B96" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C96" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D96" t="s">
         <v>202</v>
@@ -3258,10 +3270,10 @@
         <v>204</v>
       </c>
       <c r="B97" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C97" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D97" t="s">
         <v>202</v>
@@ -3277,10 +3289,10 @@
         <v>205</v>
       </c>
       <c r="B98" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C98" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D98" t="s">
         <v>206</v>
@@ -3296,10 +3308,10 @@
         <v>208</v>
       </c>
       <c r="B99" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C99" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D99" t="s">
         <v>209</v>
@@ -3315,10 +3327,10 @@
         <v>211</v>
       </c>
       <c r="B100" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C100" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D100" t="s">
         <v>212</v>
@@ -3334,10 +3346,10 @@
         <v>214</v>
       </c>
       <c r="B101" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C101" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D101" t="s">
         <v>215</v>
@@ -3353,10 +3365,10 @@
         <v>217</v>
       </c>
       <c r="B102" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C102" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D102" t="s">
         <v>218</v>
@@ -3372,10 +3384,10 @@
         <v>220</v>
       </c>
       <c r="B103" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C103" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D103" t="s">
         <v>221</v>
@@ -3391,10 +3403,10 @@
         <v>223</v>
       </c>
       <c r="B104" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C104" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D104" t="s">
         <v>221</v>
@@ -3410,10 +3422,10 @@
         <v>224</v>
       </c>
       <c r="B105" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C105" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D105" t="s">
         <v>225</v>
@@ -3429,10 +3441,10 @@
         <v>227</v>
       </c>
       <c r="B106" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C106" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D106" t="s">
         <v>225</v>
@@ -3448,10 +3460,10 @@
         <v>228</v>
       </c>
       <c r="B107" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C107" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D107" t="s">
         <v>225</v>
@@ -3467,10 +3479,10 @@
         <v>229</v>
       </c>
       <c r="B108" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C108" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D108" t="s">
         <v>225</v>
@@ -3486,10 +3498,10 @@
         <v>230</v>
       </c>
       <c r="B109" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C109" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D109" t="s">
         <v>20</v>
@@ -3505,10 +3517,10 @@
         <v>231</v>
       </c>
       <c r="B110" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C110" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D110" t="s">
         <v>232</v>
@@ -3524,10 +3536,10 @@
         <v>234</v>
       </c>
       <c r="B111" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C111" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D111" t="s">
         <v>235</v>
@@ -3543,10 +3555,10 @@
         <v>237</v>
       </c>
       <c r="B112" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C112" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D112" t="s">
         <v>235</v>
@@ -3562,10 +3574,10 @@
         <v>238</v>
       </c>
       <c r="B113" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C113" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D113" t="s">
         <v>235</v>
@@ -3581,10 +3593,10 @@
         <v>239</v>
       </c>
       <c r="B114" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C114" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D114" t="s">
         <v>235</v>
@@ -3600,10 +3612,10 @@
         <v>240</v>
       </c>
       <c r="B115" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C115" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D115" t="s">
         <v>241</v>
@@ -3619,10 +3631,10 @@
         <v>243</v>
       </c>
       <c r="B116" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C116" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D116" t="s">
         <v>241</v>
@@ -3638,219 +3650,219 @@
         <v>244</v>
       </c>
       <c r="B117" t="s">
-        <v>348</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D117" t="s">
-        <v>11</v>
+        <v>245</v>
       </c>
       <c r="E117" t="s">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="G117"/>
       <c r="H117"/>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B118" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C118" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D118" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E118" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G118"/>
       <c r="H118"/>
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>250</v>
+      </c>
+      <c r="B119" t="s">
+        <v>352</v>
+      </c>
+      <c r="C119" t="s">
+        <v>424</v>
+      </c>
+      <c r="D119" t="s">
         <v>248</v>
       </c>
-      <c r="B119" t="s">
-        <v>348</v>
-      </c>
-      <c r="C119" t="s">
-        <v>420</v>
-      </c>
-      <c r="D119" t="s">
-        <v>246</v>
-      </c>
       <c r="E119" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G119"/>
       <c r="H119"/>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>251</v>
+      </c>
+      <c r="B120" t="s">
+        <v>352</v>
+      </c>
+      <c r="C120" t="s">
+        <v>424</v>
+      </c>
+      <c r="D120" t="s">
+        <v>248</v>
+      </c>
+      <c r="E120" t="s">
         <v>249</v>
-      </c>
-      <c r="B120" t="s">
-        <v>348</v>
-      </c>
-      <c r="C120" t="s">
-        <v>420</v>
-      </c>
-      <c r="D120" t="s">
-        <v>246</v>
-      </c>
-      <c r="E120" t="s">
-        <v>247</v>
       </c>
       <c r="G120"/>
       <c r="H120"/>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B121" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C121" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D121" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E121" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G121"/>
       <c r="H121"/>
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>255</v>
+      </c>
+      <c r="B122" t="s">
+        <v>353</v>
+      </c>
+      <c r="C122" t="s">
+        <v>425</v>
+      </c>
+      <c r="D122" t="s">
         <v>253</v>
       </c>
-      <c r="B122" t="s">
-        <v>349</v>
-      </c>
-      <c r="C122" t="s">
-        <v>421</v>
-      </c>
-      <c r="D122" t="s">
-        <v>251</v>
-      </c>
       <c r="E122" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G122"/>
       <c r="H122"/>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B123" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C123" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D123" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E123" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G123"/>
       <c r="H123"/>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>259</v>
+      </c>
+      <c r="B124" t="s">
+        <v>353</v>
+      </c>
+      <c r="C124" t="s">
+        <v>426</v>
+      </c>
+      <c r="D124" t="s">
         <v>257</v>
       </c>
-      <c r="B124" t="s">
-        <v>349</v>
-      </c>
-      <c r="C124" t="s">
-        <v>422</v>
-      </c>
-      <c r="D124" t="s">
-        <v>255</v>
-      </c>
       <c r="E124" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G124"/>
       <c r="H124"/>
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>260</v>
+      </c>
+      <c r="B125" t="s">
+        <v>353</v>
+      </c>
+      <c r="C125" t="s">
+        <v>426</v>
+      </c>
+      <c r="D125" t="s">
+        <v>257</v>
+      </c>
+      <c r="E125" t="s">
         <v>258</v>
-      </c>
-      <c r="B125" t="s">
-        <v>349</v>
-      </c>
-      <c r="C125" t="s">
-        <v>422</v>
-      </c>
-      <c r="D125" t="s">
-        <v>255</v>
-      </c>
-      <c r="E125" t="s">
-        <v>256</v>
       </c>
       <c r="G125"/>
       <c r="H125"/>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B126" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C126" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D126" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G126"/>
       <c r="H126"/>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B127" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C127" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D127" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E127" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G127"/>
       <c r="H127"/>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B128" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C128" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D128" t="s">
         <v>158</v>
@@ -3863,13 +3875,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B129" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C129" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D129" t="s">
         <v>29</v>
@@ -3882,13 +3894,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B130" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C130" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D130" t="s">
         <v>120</v>
@@ -3901,22 +3913,22 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B131" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C131" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D131" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E131" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F131" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G131"/>
       <c r="H131" t="s">
@@ -3925,13 +3937,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B132" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C132" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D132" t="s">
         <v>35</v>
@@ -3944,108 +3956,108 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B133" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C133" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D133" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E133" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G133"/>
       <c r="H133"/>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B134" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C134" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D134" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E134" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G134"/>
       <c r="H134"/>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B135" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C135" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D135" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E135" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G135"/>
       <c r="H135"/>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>281</v>
+      </c>
+      <c r="B136" t="s">
+        <v>352</v>
+      </c>
+      <c r="C136" t="s">
+        <v>432</v>
+      </c>
+      <c r="D136" t="s">
         <v>279</v>
       </c>
-      <c r="B136" t="s">
-        <v>348</v>
-      </c>
-      <c r="C136" t="s">
-        <v>428</v>
-      </c>
-      <c r="D136" t="s">
-        <v>277</v>
-      </c>
       <c r="E136" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G136"/>
       <c r="H136"/>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B137" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C137" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D137" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E137" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G137"/>
       <c r="H137"/>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B138" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C138" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D138" t="s">
         <v>221</v>
@@ -4058,32 +4070,32 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B139" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C139" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D139" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E139" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G139"/>
       <c r="H139"/>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B140" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C140" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D140" t="s">
         <v>120</v>
@@ -4096,13 +4108,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B141" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C141" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D141" t="s">
         <v>123</v>
@@ -4115,13 +4127,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B142" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C142" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D142" t="s">
         <v>117</v>
@@ -4134,13 +4146,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B143" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C143" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D143" t="s">
         <v>35</v>
@@ -4153,13 +4165,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B144" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C144" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D144" t="s">
         <v>38</v>
@@ -4172,13 +4184,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B145" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C145" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D145" t="s">
         <v>117</v>
@@ -4191,13 +4203,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B146" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C146" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D146" t="s">
         <v>35</v>
@@ -4210,89 +4222,89 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B147" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C147" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D147" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E147" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G147"/>
       <c r="H147"/>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B148" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C148" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D148" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E148" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G148"/>
       <c r="H148"/>
     </row>
     <row r="149">
       <c r="A149" t="s">
+        <v>302</v>
+      </c>
+      <c r="B149" t="s">
+        <v>353</v>
+      </c>
+      <c r="C149" t="s">
+        <v>436</v>
+      </c>
+      <c r="D149" t="s">
         <v>300</v>
       </c>
-      <c r="B149" t="s">
-        <v>349</v>
-      </c>
-      <c r="C149" t="s">
-        <v>432</v>
-      </c>
-      <c r="D149" t="s">
-        <v>298</v>
-      </c>
       <c r="E149" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G149"/>
       <c r="H149"/>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B150" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C150" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D150" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E150" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G150"/>
       <c r="H150"/>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B151" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C151" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D151" t="s">
         <v>150</v>
@@ -4305,22 +4317,22 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B152" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C152" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D152" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E152" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F152" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G152"/>
       <c r="H152" t="s">
@@ -4329,22 +4341,22 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B153" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C153" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D153" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E153" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F153" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G153"/>
       <c r="H153" t="s">
@@ -4353,51 +4365,51 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B154" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C154" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D154" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E154" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G154"/>
       <c r="H154"/>
     </row>
     <row r="155">
       <c r="A155" t="s">
+        <v>316</v>
+      </c>
+      <c r="B155" t="s">
+        <v>356</v>
+      </c>
+      <c r="C155" t="s">
+        <v>440</v>
+      </c>
+      <c r="D155" t="s">
         <v>314</v>
       </c>
-      <c r="B155" t="s">
-        <v>352</v>
-      </c>
-      <c r="C155" t="s">
-        <v>436</v>
-      </c>
-      <c r="D155" t="s">
-        <v>312</v>
-      </c>
       <c r="E155" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G155"/>
       <c r="H155"/>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B156" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C156" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D156" t="s">
         <v>75</v>
@@ -4410,13 +4422,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B157" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C157" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D157" t="s">
         <v>111</v>
@@ -4429,13 +4441,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B158" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C158" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D158" t="s">
         <v>221</v>
@@ -4448,13 +4460,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B159" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C159" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D159" t="s">
         <v>150</v>
@@ -4467,13 +4479,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B160" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C160" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D160" t="s">
         <v>150</v>
@@ -4486,13 +4498,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B161" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C161" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D161" t="s">
         <v>150</v>
@@ -4505,13 +4517,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B162" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C162" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D162" t="s">
         <v>108</v>
@@ -4520,7 +4532,7 @@
         <v>109</v>
       </c>
       <c r="F162" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G162"/>
       <c r="H162" t="s">
@@ -4529,184 +4541,184 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B163" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C163" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D163" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E163" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G163"/>
       <c r="H163"/>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B164" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C164" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D164" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E164" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G164"/>
       <c r="H164"/>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B165" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C165" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D165" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E165" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G165"/>
       <c r="H165"/>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B166" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C166" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D166" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E166" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G166"/>
       <c r="H166"/>
     </row>
     <row r="167">
       <c r="A167" t="s">
+        <v>334</v>
+      </c>
+      <c r="B167" t="s">
+        <v>359</v>
+      </c>
+      <c r="C167" t="s">
+        <v>444</v>
+      </c>
+      <c r="D167" t="s">
         <v>332</v>
       </c>
-      <c r="B167" t="s">
-        <v>355</v>
-      </c>
-      <c r="C167" t="s">
-        <v>440</v>
-      </c>
-      <c r="D167" t="s">
-        <v>330</v>
-      </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G167"/>
       <c r="H167"/>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B168" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C168" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D168" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E168" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G168"/>
       <c r="H168"/>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B169" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C169" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D169" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E169" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G169"/>
       <c r="H169"/>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B170" t="s">
-        <v>357</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D170" t="s">
-        <v>11</v>
+        <v>342</v>
       </c>
       <c r="E170" t="s">
-        <v>12</v>
+        <v>343</v>
       </c>
       <c r="G170"/>
       <c r="H170"/>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B171" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C171" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D171" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E171" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G171"/>
       <c r="H171"/>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B172" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C172" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D172" t="s">
         <v>139</v>
@@ -4719,13 +4731,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B173" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C173" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D173" t="s">
         <v>139</v>
@@ -4738,19 +4750,19 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B174" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C174" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D174" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E174" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G174"/>
       <c r="H174"/>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="451">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,1039 +44,1042 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.38 fix 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wooden fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木のフェンス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natural ramp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自然の傾斜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone stairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石の階段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natural step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自然の段差</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone ramp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石の傾斜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rooftop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根トップ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">丸太のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deco block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">装飾ブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石の段差</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glass block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">硝子のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scaffold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">足場</t>
+  </si>
+  <si>
+    <t xml:space="preserve">建築には欠かせない足場。上り下りができる。瞬時に設置と撤去ができる。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mirror block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鏡のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reinforced plank block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">補強された板のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magma block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">溶岩のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wood block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大木のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fluffy block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もふもふしたブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organ block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">臓器のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metal fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金属のフェンス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plank ramp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">板の傾斜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plank block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">板のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sand block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">砂のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">straw block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">藁のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">氷のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snow block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ladder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ハシゴ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plank stairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">板の階段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thick plank wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">厚い板の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brick wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">煉瓦の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brick block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">煉瓦のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">丸太の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crystal wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水晶の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">straw wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">藁の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plank wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">板の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arch wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アーチの壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sandbag fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土嚢のフェンス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plain wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">漆喰の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wooden pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木の柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brick pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">煉瓦の柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crystal pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水晶の柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石の柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arch pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アーチの柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sandbag pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土嚢の柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plain pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">漆喰の柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jail wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">牢屋の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lumiest wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ルミエストの壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grass fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草のフェンス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stake fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杭のフェンス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ash wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">焼け焦げた壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ash block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">焼け焦げたブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sandbag wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土嚢の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natural half-stairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自然の半階段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plank half-stairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">板の半階段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modern wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">モダンな壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone half-stairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石の半階段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modern pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">モダンな柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tent wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テントの壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil block covered with roots </t>
+  </si>
+  <si>
+    <t xml:space="preserve">根に覆われた土のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palmian wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王都の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tent pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テントの柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palmian pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王都の柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palmian block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王都のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor Block(Invisiblel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">特殊ブロック(透明)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mirror wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鏡の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glass wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">硝子の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ship block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">船のブロック1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">船のブロック2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">船のブロック3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">casino wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カジノの壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grass wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quality plank block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上質板のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quality plank wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上質板の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor Block(Interior)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">特殊ブロック(室内)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor Block(Exterior)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">特殊ブロック(野外)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plain block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">漆喰のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rope pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ロープの柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gear fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">歯車のフェンス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paper wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">障子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grass block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atrium wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吹き抜けの壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil block covered with vines </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蔦の生えた土のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waterfall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">滝</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metal block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金属のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 19.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soil block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wooden fence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">木のフェンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">natural ramp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自然の傾斜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone stairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石の階段</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">natural step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自然の段差</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone ramp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石の傾斜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rooftop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">屋根トップ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">丸太のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deco block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">装飾ブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石の段差</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glass block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">硝子のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scaffold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">足場</t>
-  </si>
-  <si>
-    <t xml:space="preserve">建築には欠かせない足場。上り下りができる。瞬時に設置と撤去ができる。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mirror block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鏡のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reinforced plank block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">補強された板のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">magma block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">溶岩のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wood block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大木のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fluffy block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">もふもふしたブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">organ block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">臓器のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metal fence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金属のフェンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plank ramp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">板の傾斜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plank block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">板のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sand block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">砂のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">straw block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">藁のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ice block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">氷のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snow block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雪のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ladder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ハシゴ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plank stairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">板の階段</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thick plank wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">厚い板の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brick wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">煉瓦の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brick block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">煉瓦のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">丸太の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crystal wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水晶の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">straw wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">藁の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plank wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">板の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arch wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アーチの壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sandbag fence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土嚢のフェンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plain wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">漆喰の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wooden pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">木の柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brick pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">煉瓦の柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crystal pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水晶の柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石の柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arch pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アーチの柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sandbag pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土嚢の柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plain pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">漆喰の柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jail wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">牢屋の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lumiest wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ルミエストの壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grass fence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">草のフェンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stake fence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杭のフェンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ash wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">焼け焦げた壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ash block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">焼け焦げたブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sandbag wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土嚢の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">natural half-stairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自然の半階段</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plank half-stairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">板の半階段</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modern wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モダンな壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone half-stairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石の半階段</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modern pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モダンな柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tent wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テントの壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soil block covered with roots </t>
-  </si>
-  <si>
-    <t xml:space="preserve">根に覆われた土のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palmian wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王都の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tent pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テントの柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palmian pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王都の柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palmian block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王都のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editor Block(Invisiblel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">特殊ブロック(透明)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mirror wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鏡の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glass wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">硝子の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ship block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">船のブロック1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">船のブロック2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">船のブロック3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">casino wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">カジノの壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grass wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">草の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quality plank block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上質板のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quality plank wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上質板の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editor Block(Interior)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">特殊ブロック(室内)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editor Block(Exterior)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">特殊ブロック(野外)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plain block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">漆喰のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rope pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ロープの柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gear fence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">歯車のフェンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">障子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grass block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">草のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atrium wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">吹き抜けの壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soil block covered with vines </t>
-  </si>
-  <si>
-    <t xml:space="preserve">蔦の生えた土のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waterfall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">滝</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metal block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金属のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 19.1</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 20.7</t>
@@ -1491,7 +1494,7 @@
         <v>352</v>
       </c>
       <c r="C4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1510,7 +1513,7 @@
         <v>353</v>
       </c>
       <c r="C5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1529,7 +1532,7 @@
         <v>352</v>
       </c>
       <c r="C6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1548,7 +1551,7 @@
         <v>353</v>
       </c>
       <c r="C7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1567,7 +1570,7 @@
         <v>352</v>
       </c>
       <c r="C8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -1586,7 +1589,7 @@
         <v>353</v>
       </c>
       <c r="C9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -1605,7 +1608,7 @@
         <v>352</v>
       </c>
       <c r="C10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1624,7 +1627,7 @@
         <v>352</v>
       </c>
       <c r="C11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1643,7 +1646,7 @@
         <v>352</v>
       </c>
       <c r="C12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -1662,7 +1665,7 @@
         <v>352</v>
       </c>
       <c r="C13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -1681,7 +1684,7 @@
         <v>352</v>
       </c>
       <c r="C14" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -1700,7 +1703,7 @@
         <v>352</v>
       </c>
       <c r="C15" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -1719,7 +1722,7 @@
         <v>352</v>
       </c>
       <c r="C16" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -1728,7 +1731,7 @@
         <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
@@ -1743,7 +1746,7 @@
         <v>352</v>
       </c>
       <c r="C17" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D17" t="s">
         <v>44</v>
@@ -1762,7 +1765,7 @@
         <v>352</v>
       </c>
       <c r="C18" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D18" t="s">
         <v>52</v>
@@ -1781,7 +1784,7 @@
         <v>352</v>
       </c>
       <c r="C19" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
@@ -1800,7 +1803,7 @@
         <v>352</v>
       </c>
       <c r="C20" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D20" t="s">
         <v>56</v>
@@ -1819,7 +1822,7 @@
         <v>352</v>
       </c>
       <c r="C21" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D21" t="s">
         <v>59</v>
@@ -1838,7 +1841,7 @@
         <v>352</v>
       </c>
       <c r="C22" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
@@ -1857,7 +1860,7 @@
         <v>352</v>
       </c>
       <c r="C23" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
@@ -1876,7 +1879,7 @@
         <v>352</v>
       </c>
       <c r="C24" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
@@ -1895,7 +1898,7 @@
         <v>352</v>
       </c>
       <c r="C25" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D25" t="s">
         <v>65</v>
@@ -1914,7 +1917,7 @@
         <v>352</v>
       </c>
       <c r="C26" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D26" t="s">
         <v>52</v>
@@ -1933,7 +1936,7 @@
         <v>352</v>
       </c>
       <c r="C27" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D27" t="s">
         <v>69</v>
@@ -1952,7 +1955,7 @@
         <v>352</v>
       </c>
       <c r="C28" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D28" t="s">
         <v>72</v>
@@ -1971,7 +1974,7 @@
         <v>353</v>
       </c>
       <c r="C29" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D29" t="s">
         <v>75</v>
@@ -1990,7 +1993,7 @@
         <v>353</v>
       </c>
       <c r="C30" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -2009,7 +2012,7 @@
         <v>352</v>
       </c>
       <c r="C31" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D31" t="s">
         <v>47</v>
@@ -2018,7 +2021,7 @@
         <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
@@ -2033,7 +2036,7 @@
         <v>352</v>
       </c>
       <c r="C32" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D32" t="s">
         <v>80</v>
@@ -2052,7 +2055,7 @@
         <v>352</v>
       </c>
       <c r="C33" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D33" t="s">
         <v>83</v>
@@ -2071,7 +2074,7 @@
         <v>352</v>
       </c>
       <c r="C34" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D34" t="s">
         <v>83</v>
@@ -2090,7 +2093,7 @@
         <v>352</v>
       </c>
       <c r="C35" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D35" t="s">
         <v>83</v>
@@ -2109,7 +2112,7 @@
         <v>352</v>
       </c>
       <c r="C36" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D36" t="s">
         <v>88</v>
@@ -2128,7 +2131,7 @@
         <v>353</v>
       </c>
       <c r="C37" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D37" t="s">
         <v>91</v>
@@ -2147,7 +2150,7 @@
         <v>352</v>
       </c>
       <c r="C38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D38" t="s">
         <v>94</v>
@@ -2166,7 +2169,7 @@
         <v>352</v>
       </c>
       <c r="C39" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D39" t="s">
         <v>97</v>
@@ -2185,7 +2188,7 @@
         <v>352</v>
       </c>
       <c r="C40" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
@@ -2204,7 +2207,7 @@
         <v>352</v>
       </c>
       <c r="C41" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D41" t="s">
         <v>29</v>
@@ -2223,7 +2226,7 @@
         <v>352</v>
       </c>
       <c r="C42" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D42" t="s">
         <v>29</v>
@@ -2242,7 +2245,7 @@
         <v>352</v>
       </c>
       <c r="C43" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D43" t="s">
         <v>29</v>
@@ -2261,7 +2264,7 @@
         <v>352</v>
       </c>
       <c r="C44" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D44" t="s">
         <v>29</v>
@@ -2280,7 +2283,7 @@
         <v>353</v>
       </c>
       <c r="C45" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D45" t="s">
         <v>14</v>
@@ -2299,7 +2302,7 @@
         <v>353</v>
       </c>
       <c r="C46" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D46" t="s">
         <v>75</v>
@@ -2318,7 +2321,7 @@
         <v>353</v>
       </c>
       <c r="C47" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
@@ -2337,7 +2340,7 @@
         <v>352</v>
       </c>
       <c r="C48" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D48" t="s">
         <v>108</v>
@@ -2346,7 +2349,7 @@
         <v>109</v>
       </c>
       <c r="F48" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G48"/>
       <c r="H48" t="s">
@@ -2361,7 +2364,7 @@
         <v>352</v>
       </c>
       <c r="C49" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D49" t="s">
         <v>111</v>
@@ -2380,7 +2383,7 @@
         <v>353</v>
       </c>
       <c r="C50" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D50" t="s">
         <v>114</v>
@@ -2399,7 +2402,7 @@
         <v>352</v>
       </c>
       <c r="C51" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D51" t="s">
         <v>117</v>
@@ -2418,7 +2421,7 @@
         <v>352</v>
       </c>
       <c r="C52" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D52" t="s">
         <v>120</v>
@@ -2437,7 +2440,7 @@
         <v>352</v>
       </c>
       <c r="C53" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D53" t="s">
         <v>123</v>
@@ -2456,7 +2459,7 @@
         <v>352</v>
       </c>
       <c r="C54" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D54" t="s">
         <v>126</v>
@@ -2475,7 +2478,7 @@
         <v>352</v>
       </c>
       <c r="C55" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D55" t="s">
         <v>129</v>
@@ -2494,7 +2497,7 @@
         <v>352</v>
       </c>
       <c r="C56" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D56" t="s">
         <v>132</v>
@@ -2513,7 +2516,7 @@
         <v>353</v>
       </c>
       <c r="C57" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D57" t="s">
         <v>135</v>
@@ -2532,7 +2535,7 @@
         <v>352</v>
       </c>
       <c r="C58" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D58" t="s">
         <v>117</v>
@@ -2551,7 +2554,7 @@
         <v>352</v>
       </c>
       <c r="C59" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D59" t="s">
         <v>139</v>
@@ -2570,7 +2573,7 @@
         <v>352</v>
       </c>
       <c r="C60" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D60" t="s">
         <v>142</v>
@@ -2589,7 +2592,7 @@
         <v>352</v>
       </c>
       <c r="C61" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D61" t="s">
         <v>142</v>
@@ -2608,7 +2611,7 @@
         <v>352</v>
       </c>
       <c r="C62" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D62" t="s">
         <v>142</v>
@@ -2627,7 +2630,7 @@
         <v>353</v>
       </c>
       <c r="C63" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D63" t="s">
         <v>147</v>
@@ -2646,7 +2649,7 @@
         <v>352</v>
       </c>
       <c r="C64" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D64" t="s">
         <v>150</v>
@@ -2665,7 +2668,7 @@
         <v>352</v>
       </c>
       <c r="C65" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D65" t="s">
         <v>150</v>
@@ -2684,7 +2687,7 @@
         <v>352</v>
       </c>
       <c r="C66" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D66" t="s">
         <v>150</v>
@@ -2703,7 +2706,7 @@
         <v>352</v>
       </c>
       <c r="C67" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D67" t="s">
         <v>120</v>
@@ -2722,7 +2725,7 @@
         <v>353</v>
       </c>
       <c r="C68" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
@@ -2741,7 +2744,7 @@
         <v>353</v>
       </c>
       <c r="C69" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
@@ -2760,7 +2763,7 @@
         <v>353</v>
       </c>
       <c r="C70" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D70" t="s">
         <v>158</v>
@@ -2779,7 +2782,7 @@
         <v>353</v>
       </c>
       <c r="C71" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D71" t="s">
         <v>161</v>
@@ -2798,7 +2801,7 @@
         <v>353</v>
       </c>
       <c r="C72" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D72" t="s">
         <v>158</v>
@@ -2817,7 +2820,7 @@
         <v>353</v>
       </c>
       <c r="C73" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D73" t="s">
         <v>165</v>
@@ -2836,7 +2839,7 @@
         <v>353</v>
       </c>
       <c r="C74" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D74" t="s">
         <v>168</v>
@@ -2855,7 +2858,7 @@
         <v>353</v>
       </c>
       <c r="C75" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D75" t="s">
         <v>168</v>
@@ -2874,7 +2877,7 @@
         <v>353</v>
       </c>
       <c r="C76" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D76" t="s">
         <v>158</v>
@@ -2893,7 +2896,7 @@
         <v>353</v>
       </c>
       <c r="C77" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D77" t="s">
         <v>168</v>
@@ -2912,7 +2915,7 @@
         <v>353</v>
       </c>
       <c r="C78" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D78" t="s">
         <v>158</v>
@@ -2931,7 +2934,7 @@
         <v>353</v>
       </c>
       <c r="C79" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D79" t="s">
         <v>168</v>
@@ -2950,7 +2953,7 @@
         <v>353</v>
       </c>
       <c r="C80" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D80" t="s">
         <v>176</v>
@@ -2969,7 +2972,7 @@
         <v>353</v>
       </c>
       <c r="C81" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D81" t="s">
         <v>176</v>
@@ -2988,7 +2991,7 @@
         <v>353</v>
       </c>
       <c r="C82" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D82" t="s">
         <v>176</v>
@@ -3007,7 +3010,7 @@
         <v>353</v>
       </c>
       <c r="C83" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D83" t="s">
         <v>158</v>
@@ -3026,7 +3029,7 @@
         <v>353</v>
       </c>
       <c r="C84" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D84" t="s">
         <v>168</v>
@@ -3045,7 +3048,7 @@
         <v>353</v>
       </c>
       <c r="C85" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D85" t="s">
         <v>168</v>
@@ -3064,7 +3067,7 @@
         <v>353</v>
       </c>
       <c r="C86" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D86" t="s">
         <v>184</v>
@@ -3083,7 +3086,7 @@
         <v>353</v>
       </c>
       <c r="C87" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D87" t="s">
         <v>187</v>
@@ -3102,7 +3105,7 @@
         <v>353</v>
       </c>
       <c r="C88" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D88" t="s">
         <v>187</v>
@@ -3121,7 +3124,7 @@
         <v>353</v>
       </c>
       <c r="C89" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D89" t="s">
         <v>187</v>
@@ -3140,7 +3143,7 @@
         <v>353</v>
       </c>
       <c r="C90" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D90" t="s">
         <v>161</v>
@@ -3159,7 +3162,7 @@
         <v>352</v>
       </c>
       <c r="C91" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D91" t="s">
         <v>193</v>
@@ -3178,7 +3181,7 @@
         <v>353</v>
       </c>
       <c r="C92" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D92" t="s">
         <v>114</v>
@@ -3197,7 +3200,7 @@
         <v>353</v>
       </c>
       <c r="C93" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D93" t="s">
         <v>114</v>
@@ -3216,7 +3219,7 @@
         <v>353</v>
       </c>
       <c r="C94" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D94" t="s">
         <v>198</v>
@@ -3235,7 +3238,7 @@
         <v>352</v>
       </c>
       <c r="C95" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D95" t="s">
         <v>139</v>
@@ -3254,7 +3257,7 @@
         <v>353</v>
       </c>
       <c r="C96" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D96" t="s">
         <v>202</v>
@@ -3273,7 +3276,7 @@
         <v>353</v>
       </c>
       <c r="C97" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D97" t="s">
         <v>202</v>
@@ -3292,7 +3295,7 @@
         <v>353</v>
       </c>
       <c r="C98" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D98" t="s">
         <v>206</v>
@@ -3311,7 +3314,7 @@
         <v>352</v>
       </c>
       <c r="C99" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D99" t="s">
         <v>209</v>
@@ -3330,7 +3333,7 @@
         <v>352</v>
       </c>
       <c r="C100" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D100" t="s">
         <v>212</v>
@@ -3349,7 +3352,7 @@
         <v>352</v>
       </c>
       <c r="C101" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D101" t="s">
         <v>215</v>
@@ -3368,7 +3371,7 @@
         <v>353</v>
       </c>
       <c r="C102" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D102" t="s">
         <v>218</v>
@@ -3387,7 +3390,7 @@
         <v>353</v>
       </c>
       <c r="C103" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D103" t="s">
         <v>221</v>
@@ -3406,7 +3409,7 @@
         <v>353</v>
       </c>
       <c r="C104" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D104" t="s">
         <v>221</v>
@@ -3425,7 +3428,7 @@
         <v>352</v>
       </c>
       <c r="C105" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D105" t="s">
         <v>225</v>
@@ -3444,7 +3447,7 @@
         <v>352</v>
       </c>
       <c r="C106" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D106" t="s">
         <v>225</v>
@@ -3463,7 +3466,7 @@
         <v>352</v>
       </c>
       <c r="C107" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D107" t="s">
         <v>225</v>
@@ -3482,7 +3485,7 @@
         <v>352</v>
       </c>
       <c r="C108" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D108" t="s">
         <v>225</v>
@@ -3501,7 +3504,7 @@
         <v>352</v>
       </c>
       <c r="C109" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D109" t="s">
         <v>20</v>
@@ -3520,7 +3523,7 @@
         <v>353</v>
       </c>
       <c r="C110" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D110" t="s">
         <v>232</v>
@@ -3539,7 +3542,7 @@
         <v>353</v>
       </c>
       <c r="C111" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D111" t="s">
         <v>235</v>
@@ -3558,7 +3561,7 @@
         <v>353</v>
       </c>
       <c r="C112" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D112" t="s">
         <v>235</v>
@@ -3577,7 +3580,7 @@
         <v>353</v>
       </c>
       <c r="C113" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D113" t="s">
         <v>235</v>
@@ -3596,7 +3599,7 @@
         <v>353</v>
       </c>
       <c r="C114" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D114" t="s">
         <v>235</v>
@@ -3615,7 +3618,7 @@
         <v>352</v>
       </c>
       <c r="C115" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D115" t="s">
         <v>241</v>
@@ -3634,7 +3637,7 @@
         <v>352</v>
       </c>
       <c r="C116" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D116" t="s">
         <v>241</v>
@@ -3650,10 +3653,10 @@
         <v>244</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>354</v>
       </c>
       <c r="C117" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D117" t="s">
         <v>245</v>
@@ -3672,7 +3675,7 @@
         <v>352</v>
       </c>
       <c r="C118" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D118" t="s">
         <v>248</v>
@@ -3691,7 +3694,7 @@
         <v>352</v>
       </c>
       <c r="C119" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D119" t="s">
         <v>248</v>
@@ -3710,7 +3713,7 @@
         <v>352</v>
       </c>
       <c r="C120" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D120" t="s">
         <v>248</v>
@@ -3729,7 +3732,7 @@
         <v>353</v>
       </c>
       <c r="C121" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D121" t="s">
         <v>253</v>
@@ -3748,7 +3751,7 @@
         <v>353</v>
       </c>
       <c r="C122" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D122" t="s">
         <v>253</v>
@@ -3767,7 +3770,7 @@
         <v>353</v>
       </c>
       <c r="C123" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D123" t="s">
         <v>257</v>
@@ -3786,7 +3789,7 @@
         <v>353</v>
       </c>
       <c r="C124" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D124" t="s">
         <v>257</v>
@@ -3805,7 +3808,7 @@
         <v>353</v>
       </c>
       <c r="C125" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D125" t="s">
         <v>257</v>
@@ -3824,7 +3827,7 @@
         <v>352</v>
       </c>
       <c r="C126" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D126" t="s">
         <v>248</v>
@@ -3843,7 +3846,7 @@
         <v>352</v>
       </c>
       <c r="C127" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D127" t="s">
         <v>263</v>
@@ -3862,7 +3865,7 @@
         <v>353</v>
       </c>
       <c r="C128" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D128" t="s">
         <v>158</v>
@@ -3881,7 +3884,7 @@
         <v>352</v>
       </c>
       <c r="C129" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D129" t="s">
         <v>29</v>
@@ -3900,7 +3903,7 @@
         <v>352</v>
       </c>
       <c r="C130" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D130" t="s">
         <v>120</v>
@@ -3919,7 +3922,7 @@
         <v>352</v>
       </c>
       <c r="C131" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D131" t="s">
         <v>269</v>
@@ -3928,7 +3931,7 @@
         <v>270</v>
       </c>
       <c r="F131" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G131"/>
       <c r="H131" t="s">
@@ -3943,7 +3946,7 @@
         <v>352</v>
       </c>
       <c r="C132" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D132" t="s">
         <v>35</v>
@@ -3962,7 +3965,7 @@
         <v>352</v>
       </c>
       <c r="C133" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D133" t="s">
         <v>273</v>
@@ -3981,7 +3984,7 @@
         <v>352</v>
       </c>
       <c r="C134" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D134" t="s">
         <v>276</v>
@@ -4000,7 +4003,7 @@
         <v>352</v>
       </c>
       <c r="C135" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D135" t="s">
         <v>279</v>
@@ -4019,7 +4022,7 @@
         <v>352</v>
       </c>
       <c r="C136" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D136" t="s">
         <v>279</v>
@@ -4038,7 +4041,7 @@
         <v>352</v>
       </c>
       <c r="C137" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D137" t="s">
         <v>279</v>
@@ -4057,7 +4060,7 @@
         <v>353</v>
       </c>
       <c r="C138" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D138" t="s">
         <v>221</v>
@@ -4076,7 +4079,7 @@
         <v>353</v>
       </c>
       <c r="C139" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D139" t="s">
         <v>287</v>
@@ -4095,7 +4098,7 @@
         <v>352</v>
       </c>
       <c r="C140" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D140" t="s">
         <v>120</v>
@@ -4114,7 +4117,7 @@
         <v>352</v>
       </c>
       <c r="C141" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D141" t="s">
         <v>123</v>
@@ -4133,7 +4136,7 @@
         <v>352</v>
       </c>
       <c r="C142" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D142" t="s">
         <v>117</v>
@@ -4152,7 +4155,7 @@
         <v>352</v>
       </c>
       <c r="C143" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D143" t="s">
         <v>35</v>
@@ -4171,7 +4174,7 @@
         <v>352</v>
       </c>
       <c r="C144" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D144" t="s">
         <v>38</v>
@@ -4187,10 +4190,10 @@
         <v>294</v>
       </c>
       <c r="B145" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C145" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D145" t="s">
         <v>117</v>
@@ -4206,10 +4209,10 @@
         <v>295</v>
       </c>
       <c r="B146" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C146" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D146" t="s">
         <v>35</v>
@@ -4228,7 +4231,7 @@
         <v>353</v>
       </c>
       <c r="C147" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D147" t="s">
         <v>297</v>
@@ -4247,7 +4250,7 @@
         <v>353</v>
       </c>
       <c r="C148" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D148" t="s">
         <v>300</v>
@@ -4266,7 +4269,7 @@
         <v>353</v>
       </c>
       <c r="C149" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D149" t="s">
         <v>300</v>
@@ -4285,7 +4288,7 @@
         <v>353</v>
       </c>
       <c r="C150" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D150" t="s">
         <v>304</v>
@@ -4301,10 +4304,10 @@
         <v>306</v>
       </c>
       <c r="B151" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C151" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D151" t="s">
         <v>150</v>
@@ -4320,10 +4323,10 @@
         <v>307</v>
       </c>
       <c r="B152" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C152" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D152" t="s">
         <v>308</v>
@@ -4332,7 +4335,7 @@
         <v>309</v>
       </c>
       <c r="F152" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G152"/>
       <c r="H152" t="s">
@@ -4344,10 +4347,10 @@
         <v>310</v>
       </c>
       <c r="B153" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C153" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D153" t="s">
         <v>311</v>
@@ -4356,7 +4359,7 @@
         <v>312</v>
       </c>
       <c r="F153" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G153"/>
       <c r="H153" t="s">
@@ -4368,10 +4371,10 @@
         <v>313</v>
       </c>
       <c r="B154" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C154" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D154" t="s">
         <v>314</v>
@@ -4387,10 +4390,10 @@
         <v>316</v>
       </c>
       <c r="B155" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C155" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D155" t="s">
         <v>314</v>
@@ -4409,7 +4412,7 @@
         <v>353</v>
       </c>
       <c r="C156" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D156" t="s">
         <v>75</v>
@@ -4425,10 +4428,10 @@
         <v>318</v>
       </c>
       <c r="B157" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C157" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D157" t="s">
         <v>111</v>
@@ -4447,7 +4450,7 @@
         <v>353</v>
       </c>
       <c r="C158" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D158" t="s">
         <v>221</v>
@@ -4463,10 +4466,10 @@
         <v>320</v>
       </c>
       <c r="B159" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C159" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D159" t="s">
         <v>150</v>
@@ -4482,10 +4485,10 @@
         <v>321</v>
       </c>
       <c r="B160" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C160" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D160" t="s">
         <v>150</v>
@@ -4501,10 +4504,10 @@
         <v>322</v>
       </c>
       <c r="B161" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C161" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D161" t="s">
         <v>150</v>
@@ -4520,10 +4523,10 @@
         <v>323</v>
       </c>
       <c r="B162" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C162" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D162" t="s">
         <v>108</v>
@@ -4532,7 +4535,7 @@
         <v>109</v>
       </c>
       <c r="F162" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G162"/>
       <c r="H162" t="s">
@@ -4547,7 +4550,7 @@
         <v>353</v>
       </c>
       <c r="C163" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D163" t="s">
         <v>325</v>
@@ -4566,7 +4569,7 @@
         <v>353</v>
       </c>
       <c r="C164" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D164" t="s">
         <v>287</v>
@@ -4585,7 +4588,7 @@
         <v>353</v>
       </c>
       <c r="C165" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D165" t="s">
         <v>329</v>
@@ -4601,10 +4604,10 @@
         <v>331</v>
       </c>
       <c r="B166" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C166" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D166" t="s">
         <v>332</v>
@@ -4620,10 +4623,10 @@
         <v>334</v>
       </c>
       <c r="B167" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C167" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D167" t="s">
         <v>332</v>
@@ -4642,7 +4645,7 @@
         <v>353</v>
       </c>
       <c r="C168" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D168" t="s">
         <v>336</v>
@@ -4658,10 +4661,10 @@
         <v>338</v>
       </c>
       <c r="B169" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C169" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D169" t="s">
         <v>339</v>
@@ -4677,10 +4680,10 @@
         <v>341</v>
       </c>
       <c r="B170" t="s">
-        <v>9</v>
+        <v>354</v>
       </c>
       <c r="C170" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D170" t="s">
         <v>342</v>
@@ -4696,10 +4699,10 @@
         <v>344</v>
       </c>
       <c r="B171" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C171" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D171" t="s">
         <v>345</v>
@@ -4715,10 +4718,10 @@
         <v>347</v>
       </c>
       <c r="B172" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C172" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D172" t="s">
         <v>139</v>
@@ -4734,10 +4737,10 @@
         <v>348</v>
       </c>
       <c r="B173" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C173" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D173" t="s">
         <v>139</v>
@@ -4753,10 +4756,10 @@
         <v>349</v>
       </c>
       <c r="B174" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C174" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D174" t="s">
         <v>350</v>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38 fix 1</t>
+    <t xml:space="preserve">EA 23.39</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.39</t>
+    <t xml:space="preserve">EA 23.40 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.40 fix 1</t>
+    <t xml:space="preserve">EA 23.41</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.41</t>
+    <t xml:space="preserve">EA 23.42</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.42</t>
+    <t xml:space="preserve">EA 23.44 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.44 fix 1</t>
+    <t xml:space="preserve">EA 23.45</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.45</t>
+    <t xml:space="preserve">EA 23.46</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.54</t>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
+    <t xml:space="preserve">EA 23.65</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.65</t>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="452">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.67</t>
+    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">足場</t>
   </si>
   <si>
-    <t xml:space="preserve">建築には欠かせない足場。上り下りができる。瞬時に設置と撤去ができる。</t>
+    <t xml:space="preserve">建築には欠かせない足場。</t>
   </si>
   <si>
     <t xml:space="preserve">14</t>
@@ -828,6 +828,12 @@
   </si>
   <si>
     <t xml:space="preserve">特殊ブロック(透明)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An invisible block used to separate rooms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">部屋の区間を区切るための見えないブロック。</t>
   </si>
   <si>
     <t xml:space="preserve">129</t>
@@ -1476,7 +1482,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -1488,10 +1494,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1507,10 +1513,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C5" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1526,10 +1532,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C6" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1545,10 +1551,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1564,10 +1570,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C8" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -1583,10 +1589,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C9" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -1602,10 +1608,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1621,10 +1627,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C11" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1640,10 +1646,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C12" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -1659,10 +1665,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C13" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -1678,10 +1684,10 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C14" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -1697,10 +1703,10 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C15" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -1716,10 +1722,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>352</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -1728,7 +1734,7 @@
         <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
@@ -1740,10 +1746,10 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C17" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D17" t="s">
         <v>44</v>
@@ -1759,10 +1765,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C18" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D18" t="s">
         <v>52</v>
@@ -1778,10 +1784,10 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C19" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
@@ -1797,10 +1803,10 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C20" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D20" t="s">
         <v>56</v>
@@ -1816,10 +1822,10 @@
         <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C21" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D21" t="s">
         <v>59</v>
@@ -1835,10 +1841,10 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C22" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
@@ -1854,10 +1860,10 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C23" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
@@ -1873,10 +1879,10 @@
         <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C24" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
@@ -1892,10 +1898,10 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C25" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D25" t="s">
         <v>65</v>
@@ -1911,10 +1917,10 @@
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C26" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D26" t="s">
         <v>52</v>
@@ -1930,10 +1936,10 @@
         <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C27" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D27" t="s">
         <v>69</v>
@@ -1949,10 +1955,10 @@
         <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C28" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D28" t="s">
         <v>72</v>
@@ -1968,10 +1974,10 @@
         <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C29" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D29" t="s">
         <v>75</v>
@@ -1987,10 +1993,10 @@
         <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C30" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -2006,10 +2012,10 @@
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>352</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D31" t="s">
         <v>47</v>
@@ -2018,7 +2024,7 @@
         <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
@@ -2030,10 +2036,10 @@
         <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C32" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D32" t="s">
         <v>80</v>
@@ -2049,10 +2055,10 @@
         <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C33" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D33" t="s">
         <v>83</v>
@@ -2068,10 +2074,10 @@
         <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C34" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D34" t="s">
         <v>83</v>
@@ -2087,10 +2093,10 @@
         <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C35" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D35" t="s">
         <v>83</v>
@@ -2106,10 +2112,10 @@
         <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C36" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D36" t="s">
         <v>88</v>
@@ -2125,10 +2131,10 @@
         <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C37" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D37" t="s">
         <v>91</v>
@@ -2144,10 +2150,10 @@
         <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C38" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D38" t="s">
         <v>94</v>
@@ -2163,10 +2169,10 @@
         <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C39" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D39" t="s">
         <v>97</v>
@@ -2182,10 +2188,10 @@
         <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C40" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
@@ -2201,10 +2207,10 @@
         <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C41" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D41" t="s">
         <v>29</v>
@@ -2220,10 +2226,10 @@
         <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C42" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D42" t="s">
         <v>29</v>
@@ -2239,10 +2245,10 @@
         <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C43" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D43" t="s">
         <v>29</v>
@@ -2258,10 +2264,10 @@
         <v>103</v>
       </c>
       <c r="B44" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C44" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D44" t="s">
         <v>29</v>
@@ -2277,10 +2283,10 @@
         <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C45" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D45" t="s">
         <v>14</v>
@@ -2296,10 +2302,10 @@
         <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C46" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D46" t="s">
         <v>75</v>
@@ -2315,10 +2321,10 @@
         <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C47" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
@@ -2334,10 +2340,10 @@
         <v>107</v>
       </c>
       <c r="B48" t="s">
-        <v>352</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D48" t="s">
         <v>108</v>
@@ -2346,22 +2352,20 @@
         <v>109</v>
       </c>
       <c r="F48" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G48"/>
-      <c r="H48" t="s">
-        <v>49</v>
-      </c>
+      <c r="H48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C49" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D49" t="s">
         <v>111</v>
@@ -2377,10 +2381,10 @@
         <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C50" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D50" t="s">
         <v>114</v>
@@ -2396,10 +2400,10 @@
         <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C51" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D51" t="s">
         <v>117</v>
@@ -2415,10 +2419,10 @@
         <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C52" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D52" t="s">
         <v>120</v>
@@ -2434,10 +2438,10 @@
         <v>122</v>
       </c>
       <c r="B53" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C53" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D53" t="s">
         <v>123</v>
@@ -2453,10 +2457,10 @@
         <v>125</v>
       </c>
       <c r="B54" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C54" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D54" t="s">
         <v>126</v>
@@ -2472,10 +2476,10 @@
         <v>128</v>
       </c>
       <c r="B55" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C55" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D55" t="s">
         <v>129</v>
@@ -2491,10 +2495,10 @@
         <v>131</v>
       </c>
       <c r="B56" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C56" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D56" t="s">
         <v>132</v>
@@ -2510,10 +2514,10 @@
         <v>134</v>
       </c>
       <c r="B57" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C57" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D57" t="s">
         <v>135</v>
@@ -2529,10 +2533,10 @@
         <v>137</v>
       </c>
       <c r="B58" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C58" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D58" t="s">
         <v>117</v>
@@ -2548,10 +2552,10 @@
         <v>138</v>
       </c>
       <c r="B59" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C59" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D59" t="s">
         <v>139</v>
@@ -2567,10 +2571,10 @@
         <v>141</v>
       </c>
       <c r="B60" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C60" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D60" t="s">
         <v>142</v>
@@ -2586,10 +2590,10 @@
         <v>144</v>
       </c>
       <c r="B61" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C61" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D61" t="s">
         <v>142</v>
@@ -2605,10 +2609,10 @@
         <v>145</v>
       </c>
       <c r="B62" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C62" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D62" t="s">
         <v>142</v>
@@ -2624,10 +2628,10 @@
         <v>146</v>
       </c>
       <c r="B63" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C63" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D63" t="s">
         <v>147</v>
@@ -2643,10 +2647,10 @@
         <v>149</v>
       </c>
       <c r="B64" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C64" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D64" t="s">
         <v>150</v>
@@ -2662,10 +2666,10 @@
         <v>152</v>
       </c>
       <c r="B65" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C65" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D65" t="s">
         <v>150</v>
@@ -2681,10 +2685,10 @@
         <v>153</v>
       </c>
       <c r="B66" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C66" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D66" t="s">
         <v>150</v>
@@ -2700,10 +2704,10 @@
         <v>154</v>
       </c>
       <c r="B67" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C67" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D67" t="s">
         <v>120</v>
@@ -2719,10 +2723,10 @@
         <v>155</v>
       </c>
       <c r="B68" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C68" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
@@ -2738,10 +2742,10 @@
         <v>156</v>
       </c>
       <c r="B69" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C69" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
@@ -2757,10 +2761,10 @@
         <v>157</v>
       </c>
       <c r="B70" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C70" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D70" t="s">
         <v>158</v>
@@ -2776,10 +2780,10 @@
         <v>160</v>
       </c>
       <c r="B71" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C71" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D71" t="s">
         <v>161</v>
@@ -2795,10 +2799,10 @@
         <v>163</v>
       </c>
       <c r="B72" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C72" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D72" t="s">
         <v>158</v>
@@ -2814,10 +2818,10 @@
         <v>164</v>
       </c>
       <c r="B73" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C73" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D73" t="s">
         <v>165</v>
@@ -2833,10 +2837,10 @@
         <v>167</v>
       </c>
       <c r="B74" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C74" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D74" t="s">
         <v>168</v>
@@ -2852,10 +2856,10 @@
         <v>170</v>
       </c>
       <c r="B75" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C75" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D75" t="s">
         <v>168</v>
@@ -2871,10 +2875,10 @@
         <v>171</v>
       </c>
       <c r="B76" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C76" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D76" t="s">
         <v>158</v>
@@ -2890,10 +2894,10 @@
         <v>172</v>
       </c>
       <c r="B77" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C77" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D77" t="s">
         <v>168</v>
@@ -2909,10 +2913,10 @@
         <v>173</v>
       </c>
       <c r="B78" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C78" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D78" t="s">
         <v>158</v>
@@ -2928,10 +2932,10 @@
         <v>174</v>
       </c>
       <c r="B79" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C79" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D79" t="s">
         <v>168</v>
@@ -2947,10 +2951,10 @@
         <v>175</v>
       </c>
       <c r="B80" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C80" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D80" t="s">
         <v>176</v>
@@ -2966,10 +2970,10 @@
         <v>178</v>
       </c>
       <c r="B81" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C81" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D81" t="s">
         <v>176</v>
@@ -2985,10 +2989,10 @@
         <v>179</v>
       </c>
       <c r="B82" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C82" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D82" t="s">
         <v>176</v>
@@ -3004,10 +3008,10 @@
         <v>180</v>
       </c>
       <c r="B83" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C83" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D83" t="s">
         <v>158</v>
@@ -3023,10 +3027,10 @@
         <v>181</v>
       </c>
       <c r="B84" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C84" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D84" t="s">
         <v>168</v>
@@ -3042,10 +3046,10 @@
         <v>182</v>
       </c>
       <c r="B85" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C85" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D85" t="s">
         <v>168</v>
@@ -3061,10 +3065,10 @@
         <v>183</v>
       </c>
       <c r="B86" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C86" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D86" t="s">
         <v>184</v>
@@ -3080,10 +3084,10 @@
         <v>186</v>
       </c>
       <c r="B87" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C87" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D87" t="s">
         <v>187</v>
@@ -3099,10 +3103,10 @@
         <v>189</v>
       </c>
       <c r="B88" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C88" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D88" t="s">
         <v>187</v>
@@ -3118,10 +3122,10 @@
         <v>190</v>
       </c>
       <c r="B89" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C89" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D89" t="s">
         <v>187</v>
@@ -3137,10 +3141,10 @@
         <v>191</v>
       </c>
       <c r="B90" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C90" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D90" t="s">
         <v>161</v>
@@ -3156,10 +3160,10 @@
         <v>192</v>
       </c>
       <c r="B91" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C91" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D91" t="s">
         <v>193</v>
@@ -3175,10 +3179,10 @@
         <v>195</v>
       </c>
       <c r="B92" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C92" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D92" t="s">
         <v>114</v>
@@ -3194,10 +3198,10 @@
         <v>196</v>
       </c>
       <c r="B93" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C93" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D93" t="s">
         <v>114</v>
@@ -3213,10 +3217,10 @@
         <v>197</v>
       </c>
       <c r="B94" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C94" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D94" t="s">
         <v>198</v>
@@ -3232,10 +3236,10 @@
         <v>200</v>
       </c>
       <c r="B95" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C95" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D95" t="s">
         <v>139</v>
@@ -3251,10 +3255,10 @@
         <v>201</v>
       </c>
       <c r="B96" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C96" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D96" t="s">
         <v>202</v>
@@ -3270,10 +3274,10 @@
         <v>204</v>
       </c>
       <c r="B97" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C97" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D97" t="s">
         <v>202</v>
@@ -3289,10 +3293,10 @@
         <v>205</v>
       </c>
       <c r="B98" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C98" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D98" t="s">
         <v>206</v>
@@ -3308,10 +3312,10 @@
         <v>208</v>
       </c>
       <c r="B99" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C99" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D99" t="s">
         <v>209</v>
@@ -3327,10 +3331,10 @@
         <v>211</v>
       </c>
       <c r="B100" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C100" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D100" t="s">
         <v>212</v>
@@ -3346,10 +3350,10 @@
         <v>214</v>
       </c>
       <c r="B101" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C101" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D101" t="s">
         <v>215</v>
@@ -3365,10 +3369,10 @@
         <v>217</v>
       </c>
       <c r="B102" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C102" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D102" t="s">
         <v>218</v>
@@ -3384,10 +3388,10 @@
         <v>220</v>
       </c>
       <c r="B103" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C103" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D103" t="s">
         <v>221</v>
@@ -3403,10 +3407,10 @@
         <v>223</v>
       </c>
       <c r="B104" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C104" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D104" t="s">
         <v>221</v>
@@ -3422,10 +3426,10 @@
         <v>224</v>
       </c>
       <c r="B105" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C105" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D105" t="s">
         <v>225</v>
@@ -3441,10 +3445,10 @@
         <v>227</v>
       </c>
       <c r="B106" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C106" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D106" t="s">
         <v>225</v>
@@ -3460,10 +3464,10 @@
         <v>228</v>
       </c>
       <c r="B107" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C107" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D107" t="s">
         <v>225</v>
@@ -3479,10 +3483,10 @@
         <v>229</v>
       </c>
       <c r="B108" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C108" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D108" t="s">
         <v>225</v>
@@ -3498,10 +3502,10 @@
         <v>230</v>
       </c>
       <c r="B109" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C109" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D109" t="s">
         <v>20</v>
@@ -3517,10 +3521,10 @@
         <v>231</v>
       </c>
       <c r="B110" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C110" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D110" t="s">
         <v>232</v>
@@ -3536,10 +3540,10 @@
         <v>234</v>
       </c>
       <c r="B111" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C111" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D111" t="s">
         <v>235</v>
@@ -3555,10 +3559,10 @@
         <v>237</v>
       </c>
       <c r="B112" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C112" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D112" t="s">
         <v>235</v>
@@ -3574,10 +3578,10 @@
         <v>238</v>
       </c>
       <c r="B113" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C113" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D113" t="s">
         <v>235</v>
@@ -3593,10 +3597,10 @@
         <v>239</v>
       </c>
       <c r="B114" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C114" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D114" t="s">
         <v>235</v>
@@ -3612,10 +3616,10 @@
         <v>240</v>
       </c>
       <c r="B115" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C115" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D115" t="s">
         <v>241</v>
@@ -3631,10 +3635,10 @@
         <v>243</v>
       </c>
       <c r="B116" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C116" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D116" t="s">
         <v>241</v>
@@ -3650,10 +3654,10 @@
         <v>244</v>
       </c>
       <c r="B117" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C117" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D117" t="s">
         <v>245</v>
@@ -3669,10 +3673,10 @@
         <v>247</v>
       </c>
       <c r="B118" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C118" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D118" t="s">
         <v>248</v>
@@ -3688,10 +3692,10 @@
         <v>250</v>
       </c>
       <c r="B119" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C119" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D119" t="s">
         <v>248</v>
@@ -3707,10 +3711,10 @@
         <v>251</v>
       </c>
       <c r="B120" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C120" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D120" t="s">
         <v>248</v>
@@ -3726,10 +3730,10 @@
         <v>252</v>
       </c>
       <c r="B121" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C121" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D121" t="s">
         <v>253</v>
@@ -3745,10 +3749,10 @@
         <v>255</v>
       </c>
       <c r="B122" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C122" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D122" t="s">
         <v>253</v>
@@ -3764,10 +3768,10 @@
         <v>256</v>
       </c>
       <c r="B123" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C123" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D123" t="s">
         <v>257</v>
@@ -3783,10 +3787,10 @@
         <v>259</v>
       </c>
       <c r="B124" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C124" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D124" t="s">
         <v>257</v>
@@ -3802,10 +3806,10 @@
         <v>260</v>
       </c>
       <c r="B125" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C125" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D125" t="s">
         <v>257</v>
@@ -3821,10 +3825,10 @@
         <v>261</v>
       </c>
       <c r="B126" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C126" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D126" t="s">
         <v>248</v>
@@ -3840,10 +3844,10 @@
         <v>262</v>
       </c>
       <c r="B127" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C127" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D127" t="s">
         <v>263</v>
@@ -3859,10 +3863,10 @@
         <v>265</v>
       </c>
       <c r="B128" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C128" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D128" t="s">
         <v>158</v>
@@ -3878,10 +3882,10 @@
         <v>266</v>
       </c>
       <c r="B129" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C129" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D129" t="s">
         <v>29</v>
@@ -3897,10 +3901,10 @@
         <v>267</v>
       </c>
       <c r="B130" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C130" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D130" t="s">
         <v>120</v>
@@ -3916,10 +3920,10 @@
         <v>268</v>
       </c>
       <c r="B131" t="s">
-        <v>352</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D131" t="s">
         <v>269</v>
@@ -3928,22 +3932,24 @@
         <v>270</v>
       </c>
       <c r="F131" t="s">
-        <v>449</v>
-      </c>
-      <c r="G131"/>
+        <v>451</v>
+      </c>
+      <c r="G131" t="s">
+        <v>271</v>
+      </c>
       <c r="H131" t="s">
-        <v>49</v>
+        <v>272</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B132" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C132" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D132" t="s">
         <v>35</v>
@@ -3956,108 +3962,108 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B133" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C133" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D133" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E133" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G133"/>
       <c r="H133"/>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B134" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C134" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D134" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E134" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G134"/>
       <c r="H134"/>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B135" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C135" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D135" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E135" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G135"/>
       <c r="H135"/>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>283</v>
+      </c>
+      <c r="B136" t="s">
+        <v>354</v>
+      </c>
+      <c r="C136" t="s">
+        <v>435</v>
+      </c>
+      <c r="D136" t="s">
         <v>281</v>
       </c>
-      <c r="B136" t="s">
-        <v>352</v>
-      </c>
-      <c r="C136" t="s">
-        <v>433</v>
-      </c>
-      <c r="D136" t="s">
-        <v>279</v>
-      </c>
       <c r="E136" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G136"/>
       <c r="H136"/>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B137" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C137" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D137" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E137" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G137"/>
       <c r="H137"/>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B138" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C138" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D138" t="s">
         <v>221</v>
@@ -4070,32 +4076,32 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B139" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C139" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D139" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E139" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G139"/>
       <c r="H139"/>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B140" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C140" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D140" t="s">
         <v>120</v>
@@ -4108,13 +4114,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B141" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C141" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D141" t="s">
         <v>123</v>
@@ -4127,13 +4133,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B142" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C142" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D142" t="s">
         <v>117</v>
@@ -4146,13 +4152,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B143" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C143" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D143" t="s">
         <v>35</v>
@@ -4165,13 +4171,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B144" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C144" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D144" t="s">
         <v>38</v>
@@ -4184,13 +4190,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B145" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C145" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D145" t="s">
         <v>117</v>
@@ -4203,13 +4209,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B146" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C146" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D146" t="s">
         <v>35</v>
@@ -4222,89 +4228,89 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B147" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C147" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D147" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E147" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G147"/>
       <c r="H147"/>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B148" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C148" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D148" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E148" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G148"/>
       <c r="H148"/>
     </row>
     <row r="149">
       <c r="A149" t="s">
+        <v>304</v>
+      </c>
+      <c r="B149" t="s">
+        <v>355</v>
+      </c>
+      <c r="C149" t="s">
+        <v>439</v>
+      </c>
+      <c r="D149" t="s">
         <v>302</v>
       </c>
-      <c r="B149" t="s">
-        <v>353</v>
-      </c>
-      <c r="C149" t="s">
-        <v>437</v>
-      </c>
-      <c r="D149" t="s">
-        <v>300</v>
-      </c>
       <c r="E149" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G149"/>
       <c r="H149"/>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B150" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C150" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D150" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E150" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G150"/>
       <c r="H150"/>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B151" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C151" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D151" t="s">
         <v>150</v>
@@ -4317,99 +4323,95 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B152" t="s">
-        <v>357</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D152" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E152" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F152" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G152"/>
-      <c r="H152" t="s">
-        <v>49</v>
-      </c>
+      <c r="H152"/>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B153" t="s">
-        <v>357</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D153" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E153" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F153" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G153"/>
-      <c r="H153" t="s">
-        <v>49</v>
-      </c>
+      <c r="H153"/>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B154" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C154" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D154" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E154" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G154"/>
       <c r="H154"/>
     </row>
     <row r="155">
       <c r="A155" t="s">
+        <v>318</v>
+      </c>
+      <c r="B155" t="s">
+        <v>359</v>
+      </c>
+      <c r="C155" t="s">
+        <v>443</v>
+      </c>
+      <c r="D155" t="s">
         <v>316</v>
       </c>
-      <c r="B155" t="s">
-        <v>357</v>
-      </c>
-      <c r="C155" t="s">
-        <v>441</v>
-      </c>
-      <c r="D155" t="s">
-        <v>314</v>
-      </c>
       <c r="E155" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G155"/>
       <c r="H155"/>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B156" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C156" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D156" t="s">
         <v>75</v>
@@ -4422,13 +4424,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B157" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C157" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D157" t="s">
         <v>111</v>
@@ -4441,13 +4443,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B158" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C158" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D158" t="s">
         <v>221</v>
@@ -4460,13 +4462,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B159" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C159" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D159" t="s">
         <v>150</v>
@@ -4479,13 +4481,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B160" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C160" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D160" t="s">
         <v>150</v>
@@ -4498,13 +4500,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B161" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C161" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D161" t="s">
         <v>150</v>
@@ -4517,13 +4519,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B162" t="s">
-        <v>359</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D162" t="s">
         <v>108</v>
@@ -4532,193 +4534,191 @@
         <v>109</v>
       </c>
       <c r="F162" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G162"/>
-      <c r="H162" t="s">
-        <v>49</v>
-      </c>
+      <c r="H162"/>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B163" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C163" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D163" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E163" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G163"/>
       <c r="H163"/>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B164" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C164" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D164" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E164" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G164"/>
       <c r="H164"/>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B165" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C165" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D165" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E165" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G165"/>
       <c r="H165"/>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B166" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C166" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D166" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E166" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G166"/>
       <c r="H166"/>
     </row>
     <row r="167">
       <c r="A167" t="s">
+        <v>336</v>
+      </c>
+      <c r="B167" t="s">
+        <v>362</v>
+      </c>
+      <c r="C167" t="s">
+        <v>446</v>
+      </c>
+      <c r="D167" t="s">
         <v>334</v>
       </c>
-      <c r="B167" t="s">
-        <v>360</v>
-      </c>
-      <c r="C167" t="s">
-        <v>444</v>
-      </c>
-      <c r="D167" t="s">
-        <v>332</v>
-      </c>
       <c r="E167" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G167"/>
       <c r="H167"/>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B168" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C168" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D168" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E168" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G168"/>
       <c r="H168"/>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B169" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C169" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D169" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E169" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G169"/>
       <c r="H169"/>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B170" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C170" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D170" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E170" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G170"/>
       <c r="H170"/>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B171" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C171" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D171" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E171" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G171"/>
       <c r="H171"/>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B172" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C172" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D172" t="s">
         <v>139</v>
@@ -4731,13 +4731,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B173" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C173" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D173" t="s">
         <v>139</v>
@@ -4750,19 +4750,19 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B174" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C174" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D174" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E174" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G174"/>
       <c r="H174"/>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.75 fix 1</t>
+    <t xml:space="preserve">EA 23.81 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.81 Patch 1</t>
+    <t xml:space="preserve">EA 23.82 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.82 Patch 1</t>
+    <t xml:space="preserve">EA 23.92 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.92 Patch 2</t>
+    <t xml:space="preserve">EA 23.99 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="460">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.99 Patch 1</t>
+    <t xml:space="preserve">EA 23.108</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -1077,6 +1077,27 @@
   </si>
   <si>
     <t xml:space="preserve">金属のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skeleton stairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スケルトン階段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelf stairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">箪笥階段</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 11.1</t>
@@ -1485,7 +1506,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -1497,10 +1518,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C4" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1516,10 +1537,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C5" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1535,10 +1556,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C6" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1554,10 +1575,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1573,10 +1594,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C8" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -1592,10 +1613,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C9" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -1611,10 +1632,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C10" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1630,10 +1651,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C11" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1649,10 +1670,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C12" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -1668,10 +1689,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C13" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -1687,10 +1708,10 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C14" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -1706,10 +1727,10 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C15" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -1725,10 +1746,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C16" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -1737,7 +1758,7 @@
         <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
@@ -1749,10 +1770,10 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C17" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="D17" t="s">
         <v>44</v>
@@ -1768,10 +1789,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C18" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="D18" t="s">
         <v>52</v>
@@ -1787,10 +1808,10 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C19" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
@@ -1806,10 +1827,10 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C20" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="D20" t="s">
         <v>56</v>
@@ -1825,10 +1846,10 @@
         <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C21" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="D21" t="s">
         <v>59</v>
@@ -1844,10 +1865,10 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C22" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
@@ -1863,10 +1884,10 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C23" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
@@ -1882,10 +1903,10 @@
         <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C24" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
@@ -1901,10 +1922,10 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C25" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D25" t="s">
         <v>65</v>
@@ -1920,10 +1941,10 @@
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C26" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="D26" t="s">
         <v>52</v>
@@ -1939,10 +1960,10 @@
         <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C27" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="D27" t="s">
         <v>69</v>
@@ -1958,10 +1979,10 @@
         <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C28" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D28" t="s">
         <v>72</v>
@@ -1977,10 +1998,10 @@
         <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C29" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="D29" t="s">
         <v>75</v>
@@ -1996,10 +2017,10 @@
         <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C30" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -2015,10 +2036,10 @@
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C31" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D31" t="s">
         <v>47</v>
@@ -2027,7 +2048,7 @@
         <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
@@ -2039,10 +2060,10 @@
         <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C32" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="D32" t="s">
         <v>80</v>
@@ -2058,10 +2079,10 @@
         <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C33" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="D33" t="s">
         <v>83</v>
@@ -2077,10 +2098,10 @@
         <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C34" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="D34" t="s">
         <v>83</v>
@@ -2096,10 +2117,10 @@
         <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C35" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="D35" t="s">
         <v>83</v>
@@ -2115,10 +2136,10 @@
         <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C36" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="D36" t="s">
         <v>88</v>
@@ -2134,10 +2155,10 @@
         <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C37" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="D37" t="s">
         <v>91</v>
@@ -2153,10 +2174,10 @@
         <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C38" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="D38" t="s">
         <v>94</v>
@@ -2172,10 +2193,10 @@
         <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C39" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D39" t="s">
         <v>97</v>
@@ -2191,10 +2212,10 @@
         <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C40" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
@@ -2210,10 +2231,10 @@
         <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C41" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D41" t="s">
         <v>29</v>
@@ -2229,10 +2250,10 @@
         <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C42" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D42" t="s">
         <v>29</v>
@@ -2248,10 +2269,10 @@
         <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C43" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D43" t="s">
         <v>29</v>
@@ -2267,10 +2288,10 @@
         <v>103</v>
       </c>
       <c r="B44" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C44" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D44" t="s">
         <v>29</v>
@@ -2286,10 +2307,10 @@
         <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C45" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D45" t="s">
         <v>14</v>
@@ -2305,10 +2326,10 @@
         <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C46" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="D46" t="s">
         <v>75</v>
@@ -2324,10 +2345,10 @@
         <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C47" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
@@ -2343,10 +2364,10 @@
         <v>107</v>
       </c>
       <c r="B48" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C48" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="D48" t="s">
         <v>108</v>
@@ -2362,10 +2383,10 @@
         <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C49" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="D49" t="s">
         <v>111</v>
@@ -2381,10 +2402,10 @@
         <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C50" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D50" t="s">
         <v>114</v>
@@ -2400,10 +2421,10 @@
         <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C51" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D51" t="s">
         <v>117</v>
@@ -2419,10 +2440,10 @@
         <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C52" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D52" t="s">
         <v>120</v>
@@ -2438,10 +2459,10 @@
         <v>122</v>
       </c>
       <c r="B53" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C53" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D53" t="s">
         <v>123</v>
@@ -2457,10 +2478,10 @@
         <v>125</v>
       </c>
       <c r="B54" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C54" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="D54" t="s">
         <v>126</v>
@@ -2476,10 +2497,10 @@
         <v>128</v>
       </c>
       <c r="B55" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C55" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="D55" t="s">
         <v>129</v>
@@ -2495,10 +2516,10 @@
         <v>131</v>
       </c>
       <c r="B56" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C56" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="D56" t="s">
         <v>132</v>
@@ -2514,10 +2535,10 @@
         <v>134</v>
       </c>
       <c r="B57" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C57" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="D57" t="s">
         <v>135</v>
@@ -2533,10 +2554,10 @@
         <v>137</v>
       </c>
       <c r="B58" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C58" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D58" t="s">
         <v>117</v>
@@ -2552,10 +2573,10 @@
         <v>138</v>
       </c>
       <c r="B59" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C59" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="D59" t="s">
         <v>139</v>
@@ -2571,10 +2592,10 @@
         <v>141</v>
       </c>
       <c r="B60" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C60" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="D60" t="s">
         <v>142</v>
@@ -2590,10 +2611,10 @@
         <v>144</v>
       </c>
       <c r="B61" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C61" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="D61" t="s">
         <v>142</v>
@@ -2609,10 +2630,10 @@
         <v>145</v>
       </c>
       <c r="B62" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C62" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="D62" t="s">
         <v>142</v>
@@ -2628,10 +2649,10 @@
         <v>146</v>
       </c>
       <c r="B63" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C63" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="D63" t="s">
         <v>147</v>
@@ -2647,10 +2668,10 @@
         <v>149</v>
       </c>
       <c r="B64" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C64" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="D64" t="s">
         <v>150</v>
@@ -2666,10 +2687,10 @@
         <v>152</v>
       </c>
       <c r="B65" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C65" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="D65" t="s">
         <v>150</v>
@@ -2685,10 +2706,10 @@
         <v>153</v>
       </c>
       <c r="B66" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C66" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="D66" t="s">
         <v>150</v>
@@ -2704,10 +2725,10 @@
         <v>154</v>
       </c>
       <c r="B67" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C67" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D67" t="s">
         <v>120</v>
@@ -2723,10 +2744,10 @@
         <v>155</v>
       </c>
       <c r="B68" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C68" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
@@ -2742,10 +2763,10 @@
         <v>156</v>
       </c>
       <c r="B69" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C69" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
@@ -2761,10 +2782,10 @@
         <v>157</v>
       </c>
       <c r="B70" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C70" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="D70" t="s">
         <v>158</v>
@@ -2780,10 +2801,10 @@
         <v>160</v>
       </c>
       <c r="B71" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C71" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="D71" t="s">
         <v>161</v>
@@ -2799,10 +2820,10 @@
         <v>163</v>
       </c>
       <c r="B72" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C72" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="D72" t="s">
         <v>158</v>
@@ -2818,10 +2839,10 @@
         <v>164</v>
       </c>
       <c r="B73" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C73" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="D73" t="s">
         <v>165</v>
@@ -2837,10 +2858,10 @@
         <v>167</v>
       </c>
       <c r="B74" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C74" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="D74" t="s">
         <v>168</v>
@@ -2856,10 +2877,10 @@
         <v>170</v>
       </c>
       <c r="B75" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C75" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="D75" t="s">
         <v>168</v>
@@ -2875,10 +2896,10 @@
         <v>171</v>
       </c>
       <c r="B76" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C76" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="D76" t="s">
         <v>158</v>
@@ -2894,10 +2915,10 @@
         <v>172</v>
       </c>
       <c r="B77" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C77" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="D77" t="s">
         <v>168</v>
@@ -2913,10 +2934,10 @@
         <v>173</v>
       </c>
       <c r="B78" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C78" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="D78" t="s">
         <v>158</v>
@@ -2932,10 +2953,10 @@
         <v>174</v>
       </c>
       <c r="B79" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C79" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="D79" t="s">
         <v>168</v>
@@ -2951,10 +2972,10 @@
         <v>175</v>
       </c>
       <c r="B80" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C80" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="D80" t="s">
         <v>176</v>
@@ -2970,10 +2991,10 @@
         <v>178</v>
       </c>
       <c r="B81" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C81" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="D81" t="s">
         <v>176</v>
@@ -2989,10 +3010,10 @@
         <v>179</v>
       </c>
       <c r="B82" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C82" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="D82" t="s">
         <v>176</v>
@@ -3008,10 +3029,10 @@
         <v>180</v>
       </c>
       <c r="B83" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C83" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="D83" t="s">
         <v>158</v>
@@ -3027,10 +3048,10 @@
         <v>181</v>
       </c>
       <c r="B84" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C84" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="D84" t="s">
         <v>168</v>
@@ -3046,10 +3067,10 @@
         <v>182</v>
       </c>
       <c r="B85" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C85" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="D85" t="s">
         <v>168</v>
@@ -3065,10 +3086,10 @@
         <v>183</v>
       </c>
       <c r="B86" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C86" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="D86" t="s">
         <v>184</v>
@@ -3084,10 +3105,10 @@
         <v>186</v>
       </c>
       <c r="B87" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C87" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="D87" t="s">
         <v>187</v>
@@ -3103,10 +3124,10 @@
         <v>189</v>
       </c>
       <c r="B88" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C88" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="D88" t="s">
         <v>187</v>
@@ -3122,10 +3143,10 @@
         <v>190</v>
       </c>
       <c r="B89" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C89" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="D89" t="s">
         <v>187</v>
@@ -3141,10 +3162,10 @@
         <v>191</v>
       </c>
       <c r="B90" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C90" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="D90" t="s">
         <v>161</v>
@@ -3160,10 +3181,10 @@
         <v>192</v>
       </c>
       <c r="B91" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C91" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="D91" t="s">
         <v>193</v>
@@ -3179,10 +3200,10 @@
         <v>195</v>
       </c>
       <c r="B92" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C92" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D92" t="s">
         <v>114</v>
@@ -3198,10 +3219,10 @@
         <v>196</v>
       </c>
       <c r="B93" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C93" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D93" t="s">
         <v>114</v>
@@ -3217,10 +3238,10 @@
         <v>197</v>
       </c>
       <c r="B94" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C94" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="D94" t="s">
         <v>198</v>
@@ -3236,10 +3257,10 @@
         <v>200</v>
       </c>
       <c r="B95" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C95" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="D95" t="s">
         <v>139</v>
@@ -3255,10 +3276,10 @@
         <v>201</v>
       </c>
       <c r="B96" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C96" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="D96" t="s">
         <v>202</v>
@@ -3274,10 +3295,10 @@
         <v>204</v>
       </c>
       <c r="B97" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C97" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="D97" t="s">
         <v>202</v>
@@ -3293,10 +3314,10 @@
         <v>205</v>
       </c>
       <c r="B98" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C98" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="D98" t="s">
         <v>206</v>
@@ -3312,10 +3333,10 @@
         <v>208</v>
       </c>
       <c r="B99" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C99" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="D99" t="s">
         <v>209</v>
@@ -3331,10 +3352,10 @@
         <v>211</v>
       </c>
       <c r="B100" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C100" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="D100" t="s">
         <v>212</v>
@@ -3350,10 +3371,10 @@
         <v>214</v>
       </c>
       <c r="B101" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C101" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="D101" t="s">
         <v>215</v>
@@ -3369,10 +3390,10 @@
         <v>217</v>
       </c>
       <c r="B102" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C102" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="D102" t="s">
         <v>218</v>
@@ -3388,10 +3409,10 @@
         <v>220</v>
       </c>
       <c r="B103" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C103" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="D103" t="s">
         <v>221</v>
@@ -3407,10 +3428,10 @@
         <v>223</v>
       </c>
       <c r="B104" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C104" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="D104" t="s">
         <v>221</v>
@@ -3426,10 +3447,10 @@
         <v>224</v>
       </c>
       <c r="B105" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C105" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="D105" t="s">
         <v>225</v>
@@ -3445,10 +3466,10 @@
         <v>227</v>
       </c>
       <c r="B106" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C106" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="D106" t="s">
         <v>225</v>
@@ -3464,10 +3485,10 @@
         <v>228</v>
       </c>
       <c r="B107" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C107" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="D107" t="s">
         <v>225</v>
@@ -3483,10 +3504,10 @@
         <v>229</v>
       </c>
       <c r="B108" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C108" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="D108" t="s">
         <v>225</v>
@@ -3502,10 +3523,10 @@
         <v>230</v>
       </c>
       <c r="B109" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C109" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="D109" t="s">
         <v>20</v>
@@ -3521,10 +3542,10 @@
         <v>231</v>
       </c>
       <c r="B110" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C110" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D110" t="s">
         <v>232</v>
@@ -3540,10 +3561,10 @@
         <v>234</v>
       </c>
       <c r="B111" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C111" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="D111" t="s">
         <v>235</v>
@@ -3559,10 +3580,10 @@
         <v>237</v>
       </c>
       <c r="B112" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C112" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="D112" t="s">
         <v>235</v>
@@ -3578,10 +3599,10 @@
         <v>238</v>
       </c>
       <c r="B113" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C113" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="D113" t="s">
         <v>235</v>
@@ -3597,10 +3618,10 @@
         <v>239</v>
       </c>
       <c r="B114" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C114" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="D114" t="s">
         <v>235</v>
@@ -3616,10 +3637,10 @@
         <v>240</v>
       </c>
       <c r="B115" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C115" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="D115" t="s">
         <v>241</v>
@@ -3635,10 +3656,10 @@
         <v>243</v>
       </c>
       <c r="B116" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C116" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="D116" t="s">
         <v>241</v>
@@ -3654,10 +3675,10 @@
         <v>244</v>
       </c>
       <c r="B117" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C117" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="D117" t="s">
         <v>245</v>
@@ -3673,10 +3694,10 @@
         <v>247</v>
       </c>
       <c r="B118" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C118" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="D118" t="s">
         <v>248</v>
@@ -3692,10 +3713,10 @@
         <v>250</v>
       </c>
       <c r="B119" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C119" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="D119" t="s">
         <v>248</v>
@@ -3711,10 +3732,10 @@
         <v>251</v>
       </c>
       <c r="B120" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C120" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="D120" t="s">
         <v>248</v>
@@ -3730,10 +3751,10 @@
         <v>252</v>
       </c>
       <c r="B121" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C121" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="D121" t="s">
         <v>253</v>
@@ -3749,10 +3770,10 @@
         <v>255</v>
       </c>
       <c r="B122" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C122" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="D122" t="s">
         <v>253</v>
@@ -3768,10 +3789,10 @@
         <v>256</v>
       </c>
       <c r="B123" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C123" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="D123" t="s">
         <v>257</v>
@@ -3787,10 +3808,10 @@
         <v>259</v>
       </c>
       <c r="B124" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C124" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="D124" t="s">
         <v>257</v>
@@ -3806,10 +3827,10 @@
         <v>260</v>
       </c>
       <c r="B125" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C125" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="D125" t="s">
         <v>257</v>
@@ -3825,10 +3846,10 @@
         <v>261</v>
       </c>
       <c r="B126" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C126" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="D126" t="s">
         <v>248</v>
@@ -3844,10 +3865,10 @@
         <v>262</v>
       </c>
       <c r="B127" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C127" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="D127" t="s">
         <v>263</v>
@@ -3863,10 +3884,10 @@
         <v>265</v>
       </c>
       <c r="B128" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C128" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="D128" t="s">
         <v>158</v>
@@ -3882,10 +3903,10 @@
         <v>266</v>
       </c>
       <c r="B129" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C129" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D129" t="s">
         <v>29</v>
@@ -3901,10 +3922,10 @@
         <v>267</v>
       </c>
       <c r="B130" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C130" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D130" t="s">
         <v>120</v>
@@ -3920,10 +3941,10 @@
         <v>268</v>
       </c>
       <c r="B131" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C131" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="D131" t="s">
         <v>269</v>
@@ -3932,7 +3953,7 @@
         <v>270</v>
       </c>
       <c r="F131" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="G131" t="s">
         <v>271</v>
@@ -3946,10 +3967,10 @@
         <v>273</v>
       </c>
       <c r="B132" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C132" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D132" t="s">
         <v>35</v>
@@ -3965,10 +3986,10 @@
         <v>274</v>
       </c>
       <c r="B133" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C133" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="D133" t="s">
         <v>275</v>
@@ -3984,10 +4005,10 @@
         <v>277</v>
       </c>
       <c r="B134" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C134" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="D134" t="s">
         <v>278</v>
@@ -4003,10 +4024,10 @@
         <v>280</v>
       </c>
       <c r="B135" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C135" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D135" t="s">
         <v>281</v>
@@ -4022,10 +4043,10 @@
         <v>283</v>
       </c>
       <c r="B136" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C136" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="D136" t="s">
         <v>281</v>
@@ -4041,10 +4062,10 @@
         <v>285</v>
       </c>
       <c r="B137" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C137" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="D137" t="s">
         <v>281</v>
@@ -4060,10 +4081,10 @@
         <v>287</v>
       </c>
       <c r="B138" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C138" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="D138" t="s">
         <v>221</v>
@@ -4079,10 +4100,10 @@
         <v>288</v>
       </c>
       <c r="B139" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C139" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="D139" t="s">
         <v>289</v>
@@ -4098,10 +4119,10 @@
         <v>291</v>
       </c>
       <c r="B140" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C140" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D140" t="s">
         <v>120</v>
@@ -4117,10 +4138,10 @@
         <v>292</v>
       </c>
       <c r="B141" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C141" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D141" t="s">
         <v>123</v>
@@ -4136,10 +4157,10 @@
         <v>293</v>
       </c>
       <c r="B142" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C142" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D142" t="s">
         <v>117</v>
@@ -4155,10 +4176,10 @@
         <v>294</v>
       </c>
       <c r="B143" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C143" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D143" t="s">
         <v>35</v>
@@ -4174,10 +4195,10 @@
         <v>295</v>
       </c>
       <c r="B144" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C144" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="D144" t="s">
         <v>38</v>
@@ -4193,10 +4214,10 @@
         <v>296</v>
       </c>
       <c r="B145" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C145" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D145" t="s">
         <v>117</v>
@@ -4212,10 +4233,10 @@
         <v>297</v>
       </c>
       <c r="B146" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C146" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D146" t="s">
         <v>35</v>
@@ -4231,10 +4252,10 @@
         <v>298</v>
       </c>
       <c r="B147" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C147" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="D147" t="s">
         <v>299</v>
@@ -4250,10 +4271,10 @@
         <v>301</v>
       </c>
       <c r="B148" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C148" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="D148" t="s">
         <v>302</v>
@@ -4269,10 +4290,10 @@
         <v>304</v>
       </c>
       <c r="B149" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C149" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="D149" t="s">
         <v>302</v>
@@ -4288,10 +4309,10 @@
         <v>305</v>
       </c>
       <c r="B150" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C150" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="D150" t="s">
         <v>306</v>
@@ -4307,10 +4328,10 @@
         <v>308</v>
       </c>
       <c r="B151" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C151" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="D151" t="s">
         <v>150</v>
@@ -4326,10 +4347,10 @@
         <v>309</v>
       </c>
       <c r="B152" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C152" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D152" t="s">
         <v>310</v>
@@ -4345,10 +4366,10 @@
         <v>312</v>
       </c>
       <c r="B153" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C153" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="D153" t="s">
         <v>313</v>
@@ -4364,10 +4385,10 @@
         <v>315</v>
       </c>
       <c r="B154" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C154" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="D154" t="s">
         <v>316</v>
@@ -4383,10 +4404,10 @@
         <v>318</v>
       </c>
       <c r="B155" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C155" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="D155" t="s">
         <v>316</v>
@@ -4402,10 +4423,10 @@
         <v>319</v>
       </c>
       <c r="B156" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C156" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="D156" t="s">
         <v>75</v>
@@ -4421,10 +4442,10 @@
         <v>320</v>
       </c>
       <c r="B157" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C157" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="D157" t="s">
         <v>111</v>
@@ -4440,10 +4461,10 @@
         <v>321</v>
       </c>
       <c r="B158" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C158" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="D158" t="s">
         <v>221</v>
@@ -4459,10 +4480,10 @@
         <v>322</v>
       </c>
       <c r="B159" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C159" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="D159" t="s">
         <v>150</v>
@@ -4478,10 +4499,10 @@
         <v>323</v>
       </c>
       <c r="B160" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C160" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="D160" t="s">
         <v>150</v>
@@ -4497,10 +4518,10 @@
         <v>324</v>
       </c>
       <c r="B161" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C161" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="D161" t="s">
         <v>150</v>
@@ -4516,10 +4537,10 @@
         <v>325</v>
       </c>
       <c r="B162" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C162" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="D162" t="s">
         <v>108</v>
@@ -4535,10 +4556,10 @@
         <v>326</v>
       </c>
       <c r="B163" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C163" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="D163" t="s">
         <v>327</v>
@@ -4554,10 +4575,10 @@
         <v>329</v>
       </c>
       <c r="B164" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C164" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="D164" t="s">
         <v>289</v>
@@ -4573,10 +4594,10 @@
         <v>330</v>
       </c>
       <c r="B165" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C165" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="D165" t="s">
         <v>331</v>
@@ -4592,10 +4613,10 @@
         <v>333</v>
       </c>
       <c r="B166" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C166" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="D166" t="s">
         <v>334</v>
@@ -4611,10 +4632,10 @@
         <v>336</v>
       </c>
       <c r="B167" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C167" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="D167" t="s">
         <v>334</v>
@@ -4630,10 +4651,10 @@
         <v>337</v>
       </c>
       <c r="B168" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C168" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="D168" t="s">
         <v>338</v>
@@ -4649,10 +4670,10 @@
         <v>340</v>
       </c>
       <c r="B169" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C169" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="D169" t="s">
         <v>341</v>
@@ -4668,10 +4689,10 @@
         <v>343</v>
       </c>
       <c r="B170" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C170" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="D170" t="s">
         <v>344</v>
@@ -4687,10 +4708,10 @@
         <v>346</v>
       </c>
       <c r="B171" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C171" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="D171" t="s">
         <v>347</v>
@@ -4706,10 +4727,10 @@
         <v>349</v>
       </c>
       <c r="B172" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C172" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="D172" t="s">
         <v>139</v>
@@ -4725,10 +4746,10 @@
         <v>350</v>
       </c>
       <c r="B173" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C173" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="D173" t="s">
         <v>139</v>
@@ -4744,10 +4765,10 @@
         <v>351</v>
       </c>
       <c r="B174" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C174" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D174" t="s">
         <v>352</v>
@@ -4757,6 +4778,54 @@
       </c>
       <c r="G174"/>
       <c r="H174"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>354</v>
+      </c>
+      <c r="B175" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" t="s">
+        <v>355</v>
+      </c>
+      <c r="E175" t="s">
+        <v>356</v>
+      </c>
+      <c r="G175"/>
+      <c r="H175"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>357</v>
+      </c>
+      <c r="B176" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" t="s">
+        <v>355</v>
+      </c>
+      <c r="E176" t="s">
+        <v>356</v>
+      </c>
+      <c r="G176"/>
+      <c r="H176"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>358</v>
+      </c>
+      <c r="B177" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" t="s">
+        <v>359</v>
+      </c>
+      <c r="E177" t="s">
+        <v>360</v>
+      </c>
+      <c r="G177"/>
+      <c r="H177"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="465">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.109 Patch 2</t>
+    <t xml:space="preserve">EA 23.120</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -1098,6 +1098,12 @@
   </si>
   <si>
     <t xml:space="preserve">箪笥階段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 11.1</t>
@@ -1515,7 +1521,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -1527,10 +1533,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1546,10 +1552,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C5" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1565,10 +1571,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1584,10 +1590,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1603,10 +1609,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C8" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -1622,10 +1628,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -1641,10 +1647,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C10" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1660,10 +1666,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C11" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1679,10 +1685,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C12" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -1698,10 +1704,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C13" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -1717,10 +1723,10 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C14" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -1736,10 +1742,10 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C15" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -1755,10 +1761,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C16" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -1767,7 +1773,7 @@
         <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
@@ -1779,10 +1785,10 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C17" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D17" t="s">
         <v>44</v>
@@ -1798,10 +1804,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C18" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D18" t="s">
         <v>52</v>
@@ -1817,10 +1823,10 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C19" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
@@ -1836,10 +1842,10 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C20" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D20" t="s">
         <v>56</v>
@@ -1855,10 +1861,10 @@
         <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C21" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D21" t="s">
         <v>59</v>
@@ -1874,10 +1880,10 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C22" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
@@ -1893,10 +1899,10 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C23" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
@@ -1912,10 +1918,10 @@
         <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C24" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
@@ -1931,10 +1937,10 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C25" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D25" t="s">
         <v>65</v>
@@ -1950,10 +1956,10 @@
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C26" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D26" t="s">
         <v>52</v>
@@ -1969,10 +1975,10 @@
         <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C27" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D27" t="s">
         <v>69</v>
@@ -1988,10 +1994,10 @@
         <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C28" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D28" t="s">
         <v>72</v>
@@ -2007,10 +2013,10 @@
         <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C29" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D29" t="s">
         <v>75</v>
@@ -2026,10 +2032,10 @@
         <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C30" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -2045,10 +2051,10 @@
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C31" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D31" t="s">
         <v>47</v>
@@ -2057,7 +2063,7 @@
         <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
@@ -2069,10 +2075,10 @@
         <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C32" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D32" t="s">
         <v>80</v>
@@ -2088,10 +2094,10 @@
         <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C33" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D33" t="s">
         <v>83</v>
@@ -2107,10 +2113,10 @@
         <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C34" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D34" t="s">
         <v>83</v>
@@ -2126,10 +2132,10 @@
         <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C35" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D35" t="s">
         <v>83</v>
@@ -2145,10 +2151,10 @@
         <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C36" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D36" t="s">
         <v>88</v>
@@ -2164,10 +2170,10 @@
         <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C37" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D37" t="s">
         <v>91</v>
@@ -2183,10 +2189,10 @@
         <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C38" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D38" t="s">
         <v>94</v>
@@ -2202,10 +2208,10 @@
         <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C39" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D39" t="s">
         <v>97</v>
@@ -2221,10 +2227,10 @@
         <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C40" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
@@ -2240,10 +2246,10 @@
         <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C41" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D41" t="s">
         <v>29</v>
@@ -2259,10 +2265,10 @@
         <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C42" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D42" t="s">
         <v>29</v>
@@ -2278,10 +2284,10 @@
         <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C43" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D43" t="s">
         <v>29</v>
@@ -2297,10 +2303,10 @@
         <v>103</v>
       </c>
       <c r="B44" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C44" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D44" t="s">
         <v>29</v>
@@ -2316,10 +2322,10 @@
         <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C45" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D45" t="s">
         <v>14</v>
@@ -2335,10 +2341,10 @@
         <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C46" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D46" t="s">
         <v>75</v>
@@ -2354,10 +2360,10 @@
         <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C47" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
@@ -2373,10 +2379,10 @@
         <v>107</v>
       </c>
       <c r="B48" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C48" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D48" t="s">
         <v>108</v>
@@ -2392,10 +2398,10 @@
         <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C49" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D49" t="s">
         <v>111</v>
@@ -2411,10 +2417,10 @@
         <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C50" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D50" t="s">
         <v>114</v>
@@ -2430,10 +2436,10 @@
         <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C51" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D51" t="s">
         <v>117</v>
@@ -2449,10 +2455,10 @@
         <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C52" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D52" t="s">
         <v>120</v>
@@ -2468,10 +2474,10 @@
         <v>122</v>
       </c>
       <c r="B53" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C53" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D53" t="s">
         <v>123</v>
@@ -2487,10 +2493,10 @@
         <v>125</v>
       </c>
       <c r="B54" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C54" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D54" t="s">
         <v>126</v>
@@ -2506,10 +2512,10 @@
         <v>128</v>
       </c>
       <c r="B55" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C55" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D55" t="s">
         <v>129</v>
@@ -2525,10 +2531,10 @@
         <v>131</v>
       </c>
       <c r="B56" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C56" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D56" t="s">
         <v>132</v>
@@ -2544,10 +2550,10 @@
         <v>134</v>
       </c>
       <c r="B57" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C57" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D57" t="s">
         <v>135</v>
@@ -2563,10 +2569,10 @@
         <v>137</v>
       </c>
       <c r="B58" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C58" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D58" t="s">
         <v>117</v>
@@ -2582,10 +2588,10 @@
         <v>138</v>
       </c>
       <c r="B59" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C59" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D59" t="s">
         <v>139</v>
@@ -2601,10 +2607,10 @@
         <v>141</v>
       </c>
       <c r="B60" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C60" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D60" t="s">
         <v>142</v>
@@ -2620,10 +2626,10 @@
         <v>144</v>
       </c>
       <c r="B61" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C61" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D61" t="s">
         <v>142</v>
@@ -2639,10 +2645,10 @@
         <v>145</v>
       </c>
       <c r="B62" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C62" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D62" t="s">
         <v>142</v>
@@ -2658,10 +2664,10 @@
         <v>146</v>
       </c>
       <c r="B63" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C63" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D63" t="s">
         <v>147</v>
@@ -2677,10 +2683,10 @@
         <v>149</v>
       </c>
       <c r="B64" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C64" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D64" t="s">
         <v>150</v>
@@ -2696,10 +2702,10 @@
         <v>152</v>
       </c>
       <c r="B65" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C65" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D65" t="s">
         <v>150</v>
@@ -2715,10 +2721,10 @@
         <v>153</v>
       </c>
       <c r="B66" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C66" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D66" t="s">
         <v>150</v>
@@ -2734,10 +2740,10 @@
         <v>154</v>
       </c>
       <c r="B67" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C67" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D67" t="s">
         <v>120</v>
@@ -2753,10 +2759,10 @@
         <v>155</v>
       </c>
       <c r="B68" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C68" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
@@ -2772,10 +2778,10 @@
         <v>156</v>
       </c>
       <c r="B69" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C69" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
@@ -2791,10 +2797,10 @@
         <v>157</v>
       </c>
       <c r="B70" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C70" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D70" t="s">
         <v>158</v>
@@ -2810,10 +2816,10 @@
         <v>160</v>
       </c>
       <c r="B71" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C71" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D71" t="s">
         <v>161</v>
@@ -2829,10 +2835,10 @@
         <v>163</v>
       </c>
       <c r="B72" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C72" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D72" t="s">
         <v>158</v>
@@ -2848,10 +2854,10 @@
         <v>164</v>
       </c>
       <c r="B73" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C73" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D73" t="s">
         <v>165</v>
@@ -2867,10 +2873,10 @@
         <v>167</v>
       </c>
       <c r="B74" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C74" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D74" t="s">
         <v>168</v>
@@ -2886,10 +2892,10 @@
         <v>170</v>
       </c>
       <c r="B75" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C75" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D75" t="s">
         <v>168</v>
@@ -2905,10 +2911,10 @@
         <v>171</v>
       </c>
       <c r="B76" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C76" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D76" t="s">
         <v>158</v>
@@ -2924,10 +2930,10 @@
         <v>172</v>
       </c>
       <c r="B77" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C77" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D77" t="s">
         <v>168</v>
@@ -2943,10 +2949,10 @@
         <v>173</v>
       </c>
       <c r="B78" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C78" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D78" t="s">
         <v>158</v>
@@ -2962,10 +2968,10 @@
         <v>174</v>
       </c>
       <c r="B79" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C79" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D79" t="s">
         <v>168</v>
@@ -2981,10 +2987,10 @@
         <v>175</v>
       </c>
       <c r="B80" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C80" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D80" t="s">
         <v>176</v>
@@ -3000,10 +3006,10 @@
         <v>178</v>
       </c>
       <c r="B81" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C81" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D81" t="s">
         <v>176</v>
@@ -3019,10 +3025,10 @@
         <v>179</v>
       </c>
       <c r="B82" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C82" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D82" t="s">
         <v>176</v>
@@ -3038,10 +3044,10 @@
         <v>180</v>
       </c>
       <c r="B83" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C83" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D83" t="s">
         <v>158</v>
@@ -3057,10 +3063,10 @@
         <v>181</v>
       </c>
       <c r="B84" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C84" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D84" t="s">
         <v>168</v>
@@ -3076,10 +3082,10 @@
         <v>182</v>
       </c>
       <c r="B85" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C85" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D85" t="s">
         <v>168</v>
@@ -3095,10 +3101,10 @@
         <v>183</v>
       </c>
       <c r="B86" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C86" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D86" t="s">
         <v>184</v>
@@ -3114,10 +3120,10 @@
         <v>186</v>
       </c>
       <c r="B87" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C87" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D87" t="s">
         <v>187</v>
@@ -3133,10 +3139,10 @@
         <v>189</v>
       </c>
       <c r="B88" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C88" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D88" t="s">
         <v>187</v>
@@ -3152,10 +3158,10 @@
         <v>190</v>
       </c>
       <c r="B89" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C89" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D89" t="s">
         <v>187</v>
@@ -3171,10 +3177,10 @@
         <v>191</v>
       </c>
       <c r="B90" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C90" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D90" t="s">
         <v>161</v>
@@ -3190,10 +3196,10 @@
         <v>192</v>
       </c>
       <c r="B91" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C91" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D91" t="s">
         <v>193</v>
@@ -3209,10 +3215,10 @@
         <v>195</v>
       </c>
       <c r="B92" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C92" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D92" t="s">
         <v>114</v>
@@ -3228,10 +3234,10 @@
         <v>196</v>
       </c>
       <c r="B93" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C93" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D93" t="s">
         <v>114</v>
@@ -3247,10 +3253,10 @@
         <v>197</v>
       </c>
       <c r="B94" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C94" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D94" t="s">
         <v>198</v>
@@ -3266,10 +3272,10 @@
         <v>200</v>
       </c>
       <c r="B95" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C95" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D95" t="s">
         <v>139</v>
@@ -3285,10 +3291,10 @@
         <v>201</v>
       </c>
       <c r="B96" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C96" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D96" t="s">
         <v>202</v>
@@ -3304,10 +3310,10 @@
         <v>204</v>
       </c>
       <c r="B97" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C97" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D97" t="s">
         <v>202</v>
@@ -3323,10 +3329,10 @@
         <v>205</v>
       </c>
       <c r="B98" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C98" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D98" t="s">
         <v>206</v>
@@ -3342,10 +3348,10 @@
         <v>208</v>
       </c>
       <c r="B99" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C99" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D99" t="s">
         <v>209</v>
@@ -3361,10 +3367,10 @@
         <v>211</v>
       </c>
       <c r="B100" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C100" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D100" t="s">
         <v>212</v>
@@ -3380,10 +3386,10 @@
         <v>214</v>
       </c>
       <c r="B101" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C101" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D101" t="s">
         <v>215</v>
@@ -3399,10 +3405,10 @@
         <v>217</v>
       </c>
       <c r="B102" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C102" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D102" t="s">
         <v>218</v>
@@ -3418,10 +3424,10 @@
         <v>220</v>
       </c>
       <c r="B103" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C103" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D103" t="s">
         <v>221</v>
@@ -3437,10 +3443,10 @@
         <v>223</v>
       </c>
       <c r="B104" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C104" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D104" t="s">
         <v>221</v>
@@ -3456,10 +3462,10 @@
         <v>224</v>
       </c>
       <c r="B105" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C105" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D105" t="s">
         <v>225</v>
@@ -3475,10 +3481,10 @@
         <v>227</v>
       </c>
       <c r="B106" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C106" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D106" t="s">
         <v>225</v>
@@ -3494,10 +3500,10 @@
         <v>228</v>
       </c>
       <c r="B107" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C107" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D107" t="s">
         <v>225</v>
@@ -3513,10 +3519,10 @@
         <v>229</v>
       </c>
       <c r="B108" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C108" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D108" t="s">
         <v>225</v>
@@ -3532,10 +3538,10 @@
         <v>230</v>
       </c>
       <c r="B109" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C109" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D109" t="s">
         <v>20</v>
@@ -3551,10 +3557,10 @@
         <v>231</v>
       </c>
       <c r="B110" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C110" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D110" t="s">
         <v>232</v>
@@ -3570,10 +3576,10 @@
         <v>234</v>
       </c>
       <c r="B111" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C111" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D111" t="s">
         <v>235</v>
@@ -3589,10 +3595,10 @@
         <v>237</v>
       </c>
       <c r="B112" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C112" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D112" t="s">
         <v>235</v>
@@ -3608,10 +3614,10 @@
         <v>238</v>
       </c>
       <c r="B113" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C113" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D113" t="s">
         <v>235</v>
@@ -3627,10 +3633,10 @@
         <v>239</v>
       </c>
       <c r="B114" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C114" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D114" t="s">
         <v>235</v>
@@ -3646,10 +3652,10 @@
         <v>240</v>
       </c>
       <c r="B115" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C115" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D115" t="s">
         <v>241</v>
@@ -3665,10 +3671,10 @@
         <v>243</v>
       </c>
       <c r="B116" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C116" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D116" t="s">
         <v>241</v>
@@ -3684,10 +3690,10 @@
         <v>244</v>
       </c>
       <c r="B117" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C117" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D117" t="s">
         <v>245</v>
@@ -3703,10 +3709,10 @@
         <v>247</v>
       </c>
       <c r="B118" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C118" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D118" t="s">
         <v>248</v>
@@ -3722,10 +3728,10 @@
         <v>250</v>
       </c>
       <c r="B119" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C119" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D119" t="s">
         <v>248</v>
@@ -3741,10 +3747,10 @@
         <v>251</v>
       </c>
       <c r="B120" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C120" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D120" t="s">
         <v>248</v>
@@ -3760,10 +3766,10 @@
         <v>252</v>
       </c>
       <c r="B121" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C121" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D121" t="s">
         <v>253</v>
@@ -3779,10 +3785,10 @@
         <v>255</v>
       </c>
       <c r="B122" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C122" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D122" t="s">
         <v>253</v>
@@ -3798,10 +3804,10 @@
         <v>256</v>
       </c>
       <c r="B123" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C123" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D123" t="s">
         <v>257</v>
@@ -3817,10 +3823,10 @@
         <v>259</v>
       </c>
       <c r="B124" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C124" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D124" t="s">
         <v>257</v>
@@ -3836,10 +3842,10 @@
         <v>260</v>
       </c>
       <c r="B125" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C125" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D125" t="s">
         <v>257</v>
@@ -3855,10 +3861,10 @@
         <v>261</v>
       </c>
       <c r="B126" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C126" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D126" t="s">
         <v>248</v>
@@ -3874,10 +3880,10 @@
         <v>262</v>
       </c>
       <c r="B127" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C127" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D127" t="s">
         <v>263</v>
@@ -3893,10 +3899,10 @@
         <v>265</v>
       </c>
       <c r="B128" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C128" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D128" t="s">
         <v>158</v>
@@ -3912,10 +3918,10 @@
         <v>266</v>
       </c>
       <c r="B129" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C129" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D129" t="s">
         <v>29</v>
@@ -3931,10 +3937,10 @@
         <v>267</v>
       </c>
       <c r="B130" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C130" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D130" t="s">
         <v>120</v>
@@ -3950,10 +3956,10 @@
         <v>268</v>
       </c>
       <c r="B131" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C131" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D131" t="s">
         <v>269</v>
@@ -3962,7 +3968,7 @@
         <v>270</v>
       </c>
       <c r="F131" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G131" t="s">
         <v>271</v>
@@ -3976,10 +3982,10 @@
         <v>273</v>
       </c>
       <c r="B132" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C132" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D132" t="s">
         <v>35</v>
@@ -3995,10 +4001,10 @@
         <v>274</v>
       </c>
       <c r="B133" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C133" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D133" t="s">
         <v>275</v>
@@ -4014,10 +4020,10 @@
         <v>277</v>
       </c>
       <c r="B134" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C134" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D134" t="s">
         <v>278</v>
@@ -4033,10 +4039,10 @@
         <v>280</v>
       </c>
       <c r="B135" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C135" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D135" t="s">
         <v>281</v>
@@ -4052,10 +4058,10 @@
         <v>283</v>
       </c>
       <c r="B136" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C136" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D136" t="s">
         <v>281</v>
@@ -4071,10 +4077,10 @@
         <v>285</v>
       </c>
       <c r="B137" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C137" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D137" t="s">
         <v>281</v>
@@ -4090,10 +4096,10 @@
         <v>287</v>
       </c>
       <c r="B138" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C138" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D138" t="s">
         <v>221</v>
@@ -4109,10 +4115,10 @@
         <v>288</v>
       </c>
       <c r="B139" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C139" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D139" t="s">
         <v>289</v>
@@ -4128,10 +4134,10 @@
         <v>291</v>
       </c>
       <c r="B140" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C140" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D140" t="s">
         <v>120</v>
@@ -4147,10 +4153,10 @@
         <v>292</v>
       </c>
       <c r="B141" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C141" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D141" t="s">
         <v>123</v>
@@ -4166,10 +4172,10 @@
         <v>293</v>
       </c>
       <c r="B142" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C142" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D142" t="s">
         <v>117</v>
@@ -4185,10 +4191,10 @@
         <v>294</v>
       </c>
       <c r="B143" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C143" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D143" t="s">
         <v>35</v>
@@ -4204,10 +4210,10 @@
         <v>295</v>
       </c>
       <c r="B144" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C144" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D144" t="s">
         <v>38</v>
@@ -4223,10 +4229,10 @@
         <v>296</v>
       </c>
       <c r="B145" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C145" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D145" t="s">
         <v>117</v>
@@ -4242,10 +4248,10 @@
         <v>297</v>
       </c>
       <c r="B146" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C146" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D146" t="s">
         <v>35</v>
@@ -4261,10 +4267,10 @@
         <v>298</v>
       </c>
       <c r="B147" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C147" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D147" t="s">
         <v>299</v>
@@ -4280,10 +4286,10 @@
         <v>301</v>
       </c>
       <c r="B148" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C148" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D148" t="s">
         <v>302</v>
@@ -4299,10 +4305,10 @@
         <v>304</v>
       </c>
       <c r="B149" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C149" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D149" t="s">
         <v>302</v>
@@ -4318,10 +4324,10 @@
         <v>305</v>
       </c>
       <c r="B150" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C150" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D150" t="s">
         <v>306</v>
@@ -4337,10 +4343,10 @@
         <v>308</v>
       </c>
       <c r="B151" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C151" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D151" t="s">
         <v>150</v>
@@ -4356,10 +4362,10 @@
         <v>309</v>
       </c>
       <c r="B152" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C152" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D152" t="s">
         <v>310</v>
@@ -4375,10 +4381,10 @@
         <v>312</v>
       </c>
       <c r="B153" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C153" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D153" t="s">
         <v>313</v>
@@ -4394,10 +4400,10 @@
         <v>315</v>
       </c>
       <c r="B154" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C154" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D154" t="s">
         <v>316</v>
@@ -4413,10 +4419,10 @@
         <v>318</v>
       </c>
       <c r="B155" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C155" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D155" t="s">
         <v>316</v>
@@ -4432,10 +4438,10 @@
         <v>319</v>
       </c>
       <c r="B156" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C156" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D156" t="s">
         <v>75</v>
@@ -4451,10 +4457,10 @@
         <v>320</v>
       </c>
       <c r="B157" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C157" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D157" t="s">
         <v>111</v>
@@ -4470,10 +4476,10 @@
         <v>321</v>
       </c>
       <c r="B158" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C158" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D158" t="s">
         <v>221</v>
@@ -4489,10 +4495,10 @@
         <v>322</v>
       </c>
       <c r="B159" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C159" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D159" t="s">
         <v>150</v>
@@ -4508,10 +4514,10 @@
         <v>323</v>
       </c>
       <c r="B160" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C160" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D160" t="s">
         <v>150</v>
@@ -4527,10 +4533,10 @@
         <v>324</v>
       </c>
       <c r="B161" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C161" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D161" t="s">
         <v>150</v>
@@ -4546,10 +4552,10 @@
         <v>325</v>
       </c>
       <c r="B162" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C162" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D162" t="s">
         <v>108</v>
@@ -4565,10 +4571,10 @@
         <v>326</v>
       </c>
       <c r="B163" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C163" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D163" t="s">
         <v>327</v>
@@ -4584,10 +4590,10 @@
         <v>329</v>
       </c>
       <c r="B164" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C164" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D164" t="s">
         <v>289</v>
@@ -4603,10 +4609,10 @@
         <v>330</v>
       </c>
       <c r="B165" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C165" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D165" t="s">
         <v>331</v>
@@ -4622,10 +4628,10 @@
         <v>333</v>
       </c>
       <c r="B166" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C166" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D166" t="s">
         <v>334</v>
@@ -4641,10 +4647,10 @@
         <v>336</v>
       </c>
       <c r="B167" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C167" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D167" t="s">
         <v>334</v>
@@ -4660,10 +4666,10 @@
         <v>337</v>
       </c>
       <c r="B168" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C168" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D168" t="s">
         <v>338</v>
@@ -4679,10 +4685,10 @@
         <v>340</v>
       </c>
       <c r="B169" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C169" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D169" t="s">
         <v>341</v>
@@ -4698,10 +4704,10 @@
         <v>343</v>
       </c>
       <c r="B170" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C170" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D170" t="s">
         <v>344</v>
@@ -4717,10 +4723,10 @@
         <v>346</v>
       </c>
       <c r="B171" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C171" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D171" t="s">
         <v>347</v>
@@ -4736,10 +4742,10 @@
         <v>349</v>
       </c>
       <c r="B172" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C172" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D172" t="s">
         <v>139</v>
@@ -4755,10 +4761,10 @@
         <v>350</v>
       </c>
       <c r="B173" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C173" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D173" t="s">
         <v>139</v>
@@ -4774,10 +4780,10 @@
         <v>351</v>
       </c>
       <c r="B174" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C174" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D174" t="s">
         <v>352</v>
@@ -4793,10 +4799,10 @@
         <v>354</v>
       </c>
       <c r="B175" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C175" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D175" t="s">
         <v>355</v>
@@ -4812,10 +4818,10 @@
         <v>357</v>
       </c>
       <c r="B176" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C176" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D176" t="s">
         <v>355</v>
@@ -4831,10 +4837,10 @@
         <v>358</v>
       </c>
       <c r="B177" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C177" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D177" t="s">
         <v>359</v>
@@ -4844,6 +4850,38 @@
       </c>
       <c r="G177"/>
       <c r="H177"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>361</v>
+      </c>
+      <c r="B178" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" t="s">
+        <v>29</v>
+      </c>
+      <c r="E178" t="s">
+        <v>30</v>
+      </c>
+      <c r="G178"/>
+      <c r="H178"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>362</v>
+      </c>
+      <c r="B179" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" t="s">
+        <v>29</v>
+      </c>
+      <c r="E179" t="s">
+        <v>30</v>
+      </c>
+      <c r="G179"/>
+      <c r="H179"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="536">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.173 Patch 1</t>
+    <t xml:space="preserve">EA 23.187</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -1251,6 +1251,15 @@
   </si>
   <si>
     <t xml:space="preserve">ビスケットの柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mushroom pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キノコの柱</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 11.1</t>
@@ -1725,7 +1734,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -1737,10 +1746,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C4" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1756,10 +1765,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C5" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1775,10 +1784,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C6" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1794,10 +1803,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1813,10 +1822,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C8" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -1832,10 +1841,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C9" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -1851,10 +1860,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C10" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1870,10 +1879,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C11" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1889,10 +1898,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C12" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -1908,10 +1917,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C13" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -1927,10 +1936,10 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C14" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -1946,10 +1955,10 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C15" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -1965,10 +1974,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C16" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -1977,7 +1986,7 @@
         <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
@@ -1989,10 +1998,10 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C17" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D17" t="s">
         <v>44</v>
@@ -2008,10 +2017,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C18" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D18" t="s">
         <v>52</v>
@@ -2027,10 +2036,10 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C19" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
@@ -2046,10 +2055,10 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C20" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D20" t="s">
         <v>56</v>
@@ -2065,10 +2074,10 @@
         <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C21" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D21" t="s">
         <v>59</v>
@@ -2084,10 +2093,10 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C22" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
@@ -2103,10 +2112,10 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C23" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
@@ -2122,10 +2131,10 @@
         <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C24" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
@@ -2141,10 +2150,10 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C25" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D25" t="s">
         <v>65</v>
@@ -2160,10 +2169,10 @@
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C26" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D26" t="s">
         <v>52</v>
@@ -2179,10 +2188,10 @@
         <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C27" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D27" t="s">
         <v>69</v>
@@ -2198,10 +2207,10 @@
         <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C28" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D28" t="s">
         <v>72</v>
@@ -2217,10 +2226,10 @@
         <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C29" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D29" t="s">
         <v>75</v>
@@ -2236,10 +2245,10 @@
         <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C30" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -2255,10 +2264,10 @@
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C31" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D31" t="s">
         <v>47</v>
@@ -2267,7 +2276,7 @@
         <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
@@ -2279,10 +2288,10 @@
         <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C32" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D32" t="s">
         <v>80</v>
@@ -2298,10 +2307,10 @@
         <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C33" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D33" t="s">
         <v>83</v>
@@ -2317,10 +2326,10 @@
         <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C34" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D34" t="s">
         <v>83</v>
@@ -2336,10 +2345,10 @@
         <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C35" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D35" t="s">
         <v>83</v>
@@ -2355,10 +2364,10 @@
         <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C36" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D36" t="s">
         <v>88</v>
@@ -2374,10 +2383,10 @@
         <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C37" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D37" t="s">
         <v>91</v>
@@ -2393,10 +2402,10 @@
         <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C38" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D38" t="s">
         <v>94</v>
@@ -2412,10 +2421,10 @@
         <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C39" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D39" t="s">
         <v>97</v>
@@ -2431,10 +2440,10 @@
         <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C40" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
@@ -2450,10 +2459,10 @@
         <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C41" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D41" t="s">
         <v>29</v>
@@ -2469,10 +2478,10 @@
         <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C42" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D42" t="s">
         <v>29</v>
@@ -2488,10 +2497,10 @@
         <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C43" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D43" t="s">
         <v>29</v>
@@ -2507,10 +2516,10 @@
         <v>103</v>
       </c>
       <c r="B44" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C44" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D44" t="s">
         <v>29</v>
@@ -2526,10 +2535,10 @@
         <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C45" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D45" t="s">
         <v>14</v>
@@ -2545,10 +2554,10 @@
         <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C46" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D46" t="s">
         <v>75</v>
@@ -2564,10 +2573,10 @@
         <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C47" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
@@ -2583,10 +2592,10 @@
         <v>107</v>
       </c>
       <c r="B48" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C48" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D48" t="s">
         <v>108</v>
@@ -2602,10 +2611,10 @@
         <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C49" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D49" t="s">
         <v>111</v>
@@ -2621,10 +2630,10 @@
         <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C50" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D50" t="s">
         <v>114</v>
@@ -2640,10 +2649,10 @@
         <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C51" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D51" t="s">
         <v>117</v>
@@ -2659,10 +2668,10 @@
         <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C52" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D52" t="s">
         <v>120</v>
@@ -2678,10 +2687,10 @@
         <v>122</v>
       </c>
       <c r="B53" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C53" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D53" t="s">
         <v>123</v>
@@ -2697,10 +2706,10 @@
         <v>125</v>
       </c>
       <c r="B54" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C54" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D54" t="s">
         <v>126</v>
@@ -2716,10 +2725,10 @@
         <v>128</v>
       </c>
       <c r="B55" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C55" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D55" t="s">
         <v>129</v>
@@ -2735,10 +2744,10 @@
         <v>131</v>
       </c>
       <c r="B56" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C56" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D56" t="s">
         <v>132</v>
@@ -2754,10 +2763,10 @@
         <v>134</v>
       </c>
       <c r="B57" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C57" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D57" t="s">
         <v>135</v>
@@ -2773,10 +2782,10 @@
         <v>137</v>
       </c>
       <c r="B58" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C58" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D58" t="s">
         <v>117</v>
@@ -2792,10 +2801,10 @@
         <v>138</v>
       </c>
       <c r="B59" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C59" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D59" t="s">
         <v>139</v>
@@ -2811,10 +2820,10 @@
         <v>141</v>
       </c>
       <c r="B60" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C60" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D60" t="s">
         <v>142</v>
@@ -2830,10 +2839,10 @@
         <v>144</v>
       </c>
       <c r="B61" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C61" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D61" t="s">
         <v>142</v>
@@ -2849,10 +2858,10 @@
         <v>145</v>
       </c>
       <c r="B62" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C62" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D62" t="s">
         <v>142</v>
@@ -2868,10 +2877,10 @@
         <v>146</v>
       </c>
       <c r="B63" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C63" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D63" t="s">
         <v>147</v>
@@ -2887,10 +2896,10 @@
         <v>149</v>
       </c>
       <c r="B64" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C64" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D64" t="s">
         <v>150</v>
@@ -2906,10 +2915,10 @@
         <v>152</v>
       </c>
       <c r="B65" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C65" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D65" t="s">
         <v>150</v>
@@ -2925,10 +2934,10 @@
         <v>153</v>
       </c>
       <c r="B66" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C66" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D66" t="s">
         <v>150</v>
@@ -2944,10 +2953,10 @@
         <v>154</v>
       </c>
       <c r="B67" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C67" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D67" t="s">
         <v>120</v>
@@ -2963,10 +2972,10 @@
         <v>155</v>
       </c>
       <c r="B68" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C68" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
@@ -2982,10 +2991,10 @@
         <v>156</v>
       </c>
       <c r="B69" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C69" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
@@ -3001,10 +3010,10 @@
         <v>157</v>
       </c>
       <c r="B70" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C70" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D70" t="s">
         <v>158</v>
@@ -3020,10 +3029,10 @@
         <v>160</v>
       </c>
       <c r="B71" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C71" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D71" t="s">
         <v>161</v>
@@ -3039,10 +3048,10 @@
         <v>163</v>
       </c>
       <c r="B72" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C72" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D72" t="s">
         <v>158</v>
@@ -3058,10 +3067,10 @@
         <v>164</v>
       </c>
       <c r="B73" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C73" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D73" t="s">
         <v>165</v>
@@ -3077,10 +3086,10 @@
         <v>167</v>
       </c>
       <c r="B74" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C74" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D74" t="s">
         <v>168</v>
@@ -3096,10 +3105,10 @@
         <v>170</v>
       </c>
       <c r="B75" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C75" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D75" t="s">
         <v>168</v>
@@ -3115,10 +3124,10 @@
         <v>171</v>
       </c>
       <c r="B76" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C76" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D76" t="s">
         <v>158</v>
@@ -3134,10 +3143,10 @@
         <v>172</v>
       </c>
       <c r="B77" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C77" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D77" t="s">
         <v>168</v>
@@ -3153,10 +3162,10 @@
         <v>173</v>
       </c>
       <c r="B78" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C78" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D78" t="s">
         <v>158</v>
@@ -3172,10 +3181,10 @@
         <v>174</v>
       </c>
       <c r="B79" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C79" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D79" t="s">
         <v>168</v>
@@ -3191,10 +3200,10 @@
         <v>175</v>
       </c>
       <c r="B80" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C80" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D80" t="s">
         <v>176</v>
@@ -3210,10 +3219,10 @@
         <v>178</v>
       </c>
       <c r="B81" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C81" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D81" t="s">
         <v>176</v>
@@ -3229,10 +3238,10 @@
         <v>179</v>
       </c>
       <c r="B82" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C82" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D82" t="s">
         <v>176</v>
@@ -3248,10 +3257,10 @@
         <v>180</v>
       </c>
       <c r="B83" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C83" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D83" t="s">
         <v>158</v>
@@ -3267,10 +3276,10 @@
         <v>181</v>
       </c>
       <c r="B84" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C84" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D84" t="s">
         <v>168</v>
@@ -3286,10 +3295,10 @@
         <v>182</v>
       </c>
       <c r="B85" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C85" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D85" t="s">
         <v>168</v>
@@ -3305,10 +3314,10 @@
         <v>183</v>
       </c>
       <c r="B86" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C86" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D86" t="s">
         <v>184</v>
@@ -3324,10 +3333,10 @@
         <v>186</v>
       </c>
       <c r="B87" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C87" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D87" t="s">
         <v>187</v>
@@ -3343,10 +3352,10 @@
         <v>189</v>
       </c>
       <c r="B88" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C88" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D88" t="s">
         <v>187</v>
@@ -3362,10 +3371,10 @@
         <v>190</v>
       </c>
       <c r="B89" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C89" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D89" t="s">
         <v>187</v>
@@ -3381,10 +3390,10 @@
         <v>191</v>
       </c>
       <c r="B90" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C90" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D90" t="s">
         <v>161</v>
@@ -3400,10 +3409,10 @@
         <v>192</v>
       </c>
       <c r="B91" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C91" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D91" t="s">
         <v>193</v>
@@ -3419,10 +3428,10 @@
         <v>195</v>
       </c>
       <c r="B92" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C92" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D92" t="s">
         <v>114</v>
@@ -3438,10 +3447,10 @@
         <v>196</v>
       </c>
       <c r="B93" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C93" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D93" t="s">
         <v>114</v>
@@ -3457,10 +3466,10 @@
         <v>197</v>
       </c>
       <c r="B94" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C94" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D94" t="s">
         <v>198</v>
@@ -3476,10 +3485,10 @@
         <v>200</v>
       </c>
       <c r="B95" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C95" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D95" t="s">
         <v>139</v>
@@ -3495,10 +3504,10 @@
         <v>201</v>
       </c>
       <c r="B96" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C96" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D96" t="s">
         <v>202</v>
@@ -3514,10 +3523,10 @@
         <v>204</v>
       </c>
       <c r="B97" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C97" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D97" t="s">
         <v>202</v>
@@ -3533,10 +3542,10 @@
         <v>205</v>
       </c>
       <c r="B98" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C98" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D98" t="s">
         <v>206</v>
@@ -3552,10 +3561,10 @@
         <v>208</v>
       </c>
       <c r="B99" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C99" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D99" t="s">
         <v>209</v>
@@ -3571,10 +3580,10 @@
         <v>211</v>
       </c>
       <c r="B100" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C100" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D100" t="s">
         <v>212</v>
@@ -3590,10 +3599,10 @@
         <v>214</v>
       </c>
       <c r="B101" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C101" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D101" t="s">
         <v>215</v>
@@ -3609,10 +3618,10 @@
         <v>217</v>
       </c>
       <c r="B102" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C102" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D102" t="s">
         <v>218</v>
@@ -3628,10 +3637,10 @@
         <v>220</v>
       </c>
       <c r="B103" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C103" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D103" t="s">
         <v>221</v>
@@ -3647,10 +3656,10 @@
         <v>223</v>
       </c>
       <c r="B104" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C104" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D104" t="s">
         <v>221</v>
@@ -3666,10 +3675,10 @@
         <v>224</v>
       </c>
       <c r="B105" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C105" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D105" t="s">
         <v>225</v>
@@ -3685,10 +3694,10 @@
         <v>227</v>
       </c>
       <c r="B106" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C106" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D106" t="s">
         <v>225</v>
@@ -3704,10 +3713,10 @@
         <v>228</v>
       </c>
       <c r="B107" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C107" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D107" t="s">
         <v>225</v>
@@ -3723,10 +3732,10 @@
         <v>229</v>
       </c>
       <c r="B108" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C108" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D108" t="s">
         <v>225</v>
@@ -3742,10 +3751,10 @@
         <v>230</v>
       </c>
       <c r="B109" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C109" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D109" t="s">
         <v>20</v>
@@ -3761,10 +3770,10 @@
         <v>231</v>
       </c>
       <c r="B110" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C110" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D110" t="s">
         <v>232</v>
@@ -3780,10 +3789,10 @@
         <v>234</v>
       </c>
       <c r="B111" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C111" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D111" t="s">
         <v>235</v>
@@ -3799,10 +3808,10 @@
         <v>237</v>
       </c>
       <c r="B112" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C112" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D112" t="s">
         <v>235</v>
@@ -3818,10 +3827,10 @@
         <v>238</v>
       </c>
       <c r="B113" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C113" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D113" t="s">
         <v>235</v>
@@ -3837,10 +3846,10 @@
         <v>239</v>
       </c>
       <c r="B114" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C114" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D114" t="s">
         <v>235</v>
@@ -3856,10 +3865,10 @@
         <v>240</v>
       </c>
       <c r="B115" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C115" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D115" t="s">
         <v>241</v>
@@ -3875,10 +3884,10 @@
         <v>243</v>
       </c>
       <c r="B116" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C116" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D116" t="s">
         <v>241</v>
@@ -3894,10 +3903,10 @@
         <v>244</v>
       </c>
       <c r="B117" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C117" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D117" t="s">
         <v>245</v>
@@ -3913,10 +3922,10 @@
         <v>247</v>
       </c>
       <c r="B118" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C118" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D118" t="s">
         <v>248</v>
@@ -3932,10 +3941,10 @@
         <v>250</v>
       </c>
       <c r="B119" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C119" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D119" t="s">
         <v>248</v>
@@ -3951,10 +3960,10 @@
         <v>251</v>
       </c>
       <c r="B120" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C120" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D120" t="s">
         <v>248</v>
@@ -3970,10 +3979,10 @@
         <v>252</v>
       </c>
       <c r="B121" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C121" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D121" t="s">
         <v>253</v>
@@ -3989,10 +3998,10 @@
         <v>255</v>
       </c>
       <c r="B122" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C122" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D122" t="s">
         <v>253</v>
@@ -4008,10 +4017,10 @@
         <v>256</v>
       </c>
       <c r="B123" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C123" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D123" t="s">
         <v>257</v>
@@ -4027,10 +4036,10 @@
         <v>259</v>
       </c>
       <c r="B124" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C124" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D124" t="s">
         <v>257</v>
@@ -4046,10 +4055,10 @@
         <v>260</v>
       </c>
       <c r="B125" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C125" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D125" t="s">
         <v>257</v>
@@ -4065,10 +4074,10 @@
         <v>261</v>
       </c>
       <c r="B126" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C126" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D126" t="s">
         <v>248</v>
@@ -4084,10 +4093,10 @@
         <v>262</v>
       </c>
       <c r="B127" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C127" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D127" t="s">
         <v>263</v>
@@ -4103,10 +4112,10 @@
         <v>265</v>
       </c>
       <c r="B128" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C128" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D128" t="s">
         <v>158</v>
@@ -4122,10 +4131,10 @@
         <v>266</v>
       </c>
       <c r="B129" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C129" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D129" t="s">
         <v>29</v>
@@ -4141,10 +4150,10 @@
         <v>267</v>
       </c>
       <c r="B130" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C130" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D130" t="s">
         <v>120</v>
@@ -4160,10 +4169,10 @@
         <v>268</v>
       </c>
       <c r="B131" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C131" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D131" t="s">
         <v>269</v>
@@ -4172,7 +4181,7 @@
         <v>270</v>
       </c>
       <c r="F131" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="G131" t="s">
         <v>271</v>
@@ -4186,10 +4195,10 @@
         <v>273</v>
       </c>
       <c r="B132" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C132" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D132" t="s">
         <v>35</v>
@@ -4205,10 +4214,10 @@
         <v>274</v>
       </c>
       <c r="B133" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C133" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D133" t="s">
         <v>275</v>
@@ -4224,10 +4233,10 @@
         <v>277</v>
       </c>
       <c r="B134" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C134" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D134" t="s">
         <v>278</v>
@@ -4243,10 +4252,10 @@
         <v>280</v>
       </c>
       <c r="B135" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C135" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D135" t="s">
         <v>281</v>
@@ -4262,10 +4271,10 @@
         <v>283</v>
       </c>
       <c r="B136" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C136" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D136" t="s">
         <v>281</v>
@@ -4281,10 +4290,10 @@
         <v>285</v>
       </c>
       <c r="B137" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C137" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D137" t="s">
         <v>281</v>
@@ -4300,10 +4309,10 @@
         <v>287</v>
       </c>
       <c r="B138" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C138" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D138" t="s">
         <v>221</v>
@@ -4319,10 +4328,10 @@
         <v>288</v>
       </c>
       <c r="B139" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C139" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D139" t="s">
         <v>289</v>
@@ -4338,10 +4347,10 @@
         <v>291</v>
       </c>
       <c r="B140" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C140" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D140" t="s">
         <v>120</v>
@@ -4357,10 +4366,10 @@
         <v>292</v>
       </c>
       <c r="B141" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C141" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D141" t="s">
         <v>123</v>
@@ -4376,10 +4385,10 @@
         <v>293</v>
       </c>
       <c r="B142" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C142" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D142" t="s">
         <v>117</v>
@@ -4395,10 +4404,10 @@
         <v>294</v>
       </c>
       <c r="B143" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C143" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D143" t="s">
         <v>35</v>
@@ -4414,10 +4423,10 @@
         <v>295</v>
       </c>
       <c r="B144" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C144" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D144" t="s">
         <v>38</v>
@@ -4433,10 +4442,10 @@
         <v>296</v>
       </c>
       <c r="B145" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C145" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D145" t="s">
         <v>117</v>
@@ -4452,10 +4461,10 @@
         <v>297</v>
       </c>
       <c r="B146" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C146" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D146" t="s">
         <v>35</v>
@@ -4471,10 +4480,10 @@
         <v>298</v>
       </c>
       <c r="B147" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C147" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D147" t="s">
         <v>299</v>
@@ -4490,10 +4499,10 @@
         <v>301</v>
       </c>
       <c r="B148" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C148" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D148" t="s">
         <v>302</v>
@@ -4509,10 +4518,10 @@
         <v>304</v>
       </c>
       <c r="B149" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C149" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D149" t="s">
         <v>302</v>
@@ -4528,10 +4537,10 @@
         <v>305</v>
       </c>
       <c r="B150" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C150" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D150" t="s">
         <v>306</v>
@@ -4547,10 +4556,10 @@
         <v>308</v>
       </c>
       <c r="B151" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C151" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D151" t="s">
         <v>150</v>
@@ -4566,10 +4575,10 @@
         <v>309</v>
       </c>
       <c r="B152" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C152" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D152" t="s">
         <v>310</v>
@@ -4585,10 +4594,10 @@
         <v>312</v>
       </c>
       <c r="B153" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C153" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D153" t="s">
         <v>313</v>
@@ -4604,10 +4613,10 @@
         <v>315</v>
       </c>
       <c r="B154" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C154" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D154" t="s">
         <v>316</v>
@@ -4623,10 +4632,10 @@
         <v>318</v>
       </c>
       <c r="B155" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C155" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D155" t="s">
         <v>316</v>
@@ -4642,10 +4651,10 @@
         <v>319</v>
       </c>
       <c r="B156" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C156" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D156" t="s">
         <v>75</v>
@@ -4661,10 +4670,10 @@
         <v>320</v>
       </c>
       <c r="B157" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C157" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D157" t="s">
         <v>111</v>
@@ -4680,10 +4689,10 @@
         <v>321</v>
       </c>
       <c r="B158" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C158" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D158" t="s">
         <v>221</v>
@@ -4699,10 +4708,10 @@
         <v>322</v>
       </c>
       <c r="B159" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C159" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D159" t="s">
         <v>150</v>
@@ -4718,10 +4727,10 @@
         <v>323</v>
       </c>
       <c r="B160" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C160" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D160" t="s">
         <v>150</v>
@@ -4737,10 +4746,10 @@
         <v>324</v>
       </c>
       <c r="B161" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C161" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D161" t="s">
         <v>150</v>
@@ -4756,10 +4765,10 @@
         <v>325</v>
       </c>
       <c r="B162" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C162" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D162" t="s">
         <v>108</v>
@@ -4775,10 +4784,10 @@
         <v>326</v>
       </c>
       <c r="B163" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C163" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D163" t="s">
         <v>327</v>
@@ -4794,10 +4803,10 @@
         <v>329</v>
       </c>
       <c r="B164" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C164" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D164" t="s">
         <v>289</v>
@@ -4813,10 +4822,10 @@
         <v>330</v>
       </c>
       <c r="B165" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C165" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D165" t="s">
         <v>331</v>
@@ -4832,10 +4841,10 @@
         <v>333</v>
       </c>
       <c r="B166" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C166" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D166" t="s">
         <v>334</v>
@@ -4851,10 +4860,10 @@
         <v>336</v>
       </c>
       <c r="B167" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C167" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D167" t="s">
         <v>334</v>
@@ -4870,10 +4879,10 @@
         <v>337</v>
       </c>
       <c r="B168" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C168" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D168" t="s">
         <v>338</v>
@@ -4889,10 +4898,10 @@
         <v>340</v>
       </c>
       <c r="B169" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C169" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D169" t="s">
         <v>341</v>
@@ -4908,10 +4917,10 @@
         <v>343</v>
       </c>
       <c r="B170" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C170" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D170" t="s">
         <v>344</v>
@@ -4927,10 +4936,10 @@
         <v>346</v>
       </c>
       <c r="B171" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C171" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D171" t="s">
         <v>347</v>
@@ -4946,10 +4955,10 @@
         <v>349</v>
       </c>
       <c r="B172" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C172" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D172" t="s">
         <v>139</v>
@@ -4965,10 +4974,10 @@
         <v>350</v>
       </c>
       <c r="B173" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C173" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D173" t="s">
         <v>139</v>
@@ -4984,10 +4993,10 @@
         <v>351</v>
       </c>
       <c r="B174" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C174" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D174" t="s">
         <v>352</v>
@@ -5003,10 +5012,10 @@
         <v>354</v>
       </c>
       <c r="B175" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C175" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D175" t="s">
         <v>355</v>
@@ -5022,10 +5031,10 @@
         <v>357</v>
       </c>
       <c r="B176" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C176" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D176" t="s">
         <v>355</v>
@@ -5041,10 +5050,10 @@
         <v>358</v>
       </c>
       <c r="B177" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C177" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D177" t="s">
         <v>359</v>
@@ -5060,10 +5069,10 @@
         <v>361</v>
       </c>
       <c r="B178" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C178" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D178" t="s">
         <v>29</v>
@@ -5079,10 +5088,10 @@
         <v>362</v>
       </c>
       <c r="B179" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C179" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D179" t="s">
         <v>29</v>
@@ -5098,10 +5107,10 @@
         <v>363</v>
       </c>
       <c r="B180" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C180" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D180" t="s">
         <v>29</v>
@@ -5117,10 +5126,10 @@
         <v>364</v>
       </c>
       <c r="B181" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C181" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D181" t="s">
         <v>29</v>
@@ -5136,10 +5145,10 @@
         <v>365</v>
       </c>
       <c r="B182" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C182" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D182" t="s">
         <v>29</v>
@@ -5155,10 +5164,10 @@
         <v>366</v>
       </c>
       <c r="B183" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C183" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D183" t="s">
         <v>29</v>
@@ -5174,10 +5183,10 @@
         <v>367</v>
       </c>
       <c r="B184" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C184" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D184" t="s">
         <v>29</v>
@@ -5193,10 +5202,10 @@
         <v>368</v>
       </c>
       <c r="B185" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C185" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D185" t="s">
         <v>29</v>
@@ -5212,10 +5221,10 @@
         <v>369</v>
       </c>
       <c r="B186" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C186" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D186" t="s">
         <v>29</v>
@@ -5231,10 +5240,10 @@
         <v>370</v>
       </c>
       <c r="B187" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C187" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D187" t="s">
         <v>29</v>
@@ -5250,10 +5259,10 @@
         <v>371</v>
       </c>
       <c r="B188" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C188" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D188" t="s">
         <v>14</v>
@@ -5269,10 +5278,10 @@
         <v>372</v>
       </c>
       <c r="B189" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C189" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D189" t="s">
         <v>373</v>
@@ -5288,10 +5297,10 @@
         <v>375</v>
       </c>
       <c r="B190" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C190" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D190" t="s">
         <v>376</v>
@@ -5307,10 +5316,10 @@
         <v>378</v>
       </c>
       <c r="B191" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C191" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D191" t="s">
         <v>376</v>
@@ -5326,10 +5335,10 @@
         <v>379</v>
       </c>
       <c r="B192" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C192" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D192" t="s">
         <v>380</v>
@@ -5345,10 +5354,10 @@
         <v>382</v>
       </c>
       <c r="B193" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C193" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D193" t="s">
         <v>383</v>
@@ -5364,10 +5373,10 @@
         <v>385</v>
       </c>
       <c r="B194" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C194" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D194" t="s">
         <v>386</v>
@@ -5383,10 +5392,10 @@
         <v>388</v>
       </c>
       <c r="B195" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C195" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D195" t="s">
         <v>389</v>
@@ -5402,10 +5411,10 @@
         <v>391</v>
       </c>
       <c r="B196" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C196" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D196" t="s">
         <v>392</v>
@@ -5421,10 +5430,10 @@
         <v>394</v>
       </c>
       <c r="B197" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C197" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D197" t="s">
         <v>395</v>
@@ -5440,10 +5449,10 @@
         <v>397</v>
       </c>
       <c r="B198" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C198" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D198" t="s">
         <v>398</v>
@@ -5459,10 +5468,10 @@
         <v>400</v>
       </c>
       <c r="B199" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C199" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D199" t="s">
         <v>401</v>
@@ -5478,10 +5487,10 @@
         <v>403</v>
       </c>
       <c r="B200" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C200" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D200" t="s">
         <v>404</v>
@@ -5497,10 +5506,10 @@
         <v>406</v>
       </c>
       <c r="B201" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C201" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D201" t="s">
         <v>407</v>
@@ -5516,10 +5525,10 @@
         <v>409</v>
       </c>
       <c r="B202" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C202" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D202" t="s">
         <v>410</v>
@@ -5529,6 +5538,22 @@
       </c>
       <c r="G202"/>
       <c r="H202"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>412</v>
+      </c>
+      <c r="B203" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" t="s">
+        <v>413</v>
+      </c>
+      <c r="E203" t="s">
+        <v>414</v>
+      </c>
+      <c r="G203"/>
+      <c r="H203"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.188 Patch 2</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.209 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.212</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="539">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.212</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -1260,6 +1260,9 @@
   </si>
   <si>
     <t xml:space="preserve">キノコの柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 11.1</t>
@@ -1740,7 +1743,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -1752,10 +1755,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1771,10 +1774,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1790,10 +1793,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1809,10 +1812,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1828,10 +1831,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -1847,10 +1850,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -1866,10 +1869,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C10" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1885,10 +1888,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C11" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1904,10 +1907,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C12" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -1923,10 +1926,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C13" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -1942,10 +1945,10 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C14" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -1961,10 +1964,10 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C15" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -1980,10 +1983,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C16" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -1992,7 +1995,7 @@
         <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
@@ -2004,10 +2007,10 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C17" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D17" t="s">
         <v>44</v>
@@ -2023,10 +2026,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C18" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D18" t="s">
         <v>52</v>
@@ -2042,10 +2045,10 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C19" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
@@ -2061,10 +2064,10 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C20" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D20" t="s">
         <v>56</v>
@@ -2080,10 +2083,10 @@
         <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C21" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D21" t="s">
         <v>59</v>
@@ -2099,10 +2102,10 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C22" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
@@ -2118,10 +2121,10 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C23" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
@@ -2137,10 +2140,10 @@
         <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C24" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
@@ -2156,10 +2159,10 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C25" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D25" t="s">
         <v>65</v>
@@ -2175,10 +2178,10 @@
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C26" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D26" t="s">
         <v>52</v>
@@ -2194,10 +2197,10 @@
         <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C27" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D27" t="s">
         <v>69</v>
@@ -2213,10 +2216,10 @@
         <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C28" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D28" t="s">
         <v>72</v>
@@ -2232,10 +2235,10 @@
         <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C29" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D29" t="s">
         <v>75</v>
@@ -2251,10 +2254,10 @@
         <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C30" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -2270,10 +2273,10 @@
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C31" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D31" t="s">
         <v>47</v>
@@ -2282,7 +2285,7 @@
         <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
@@ -2294,10 +2297,10 @@
         <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C32" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D32" t="s">
         <v>80</v>
@@ -2313,10 +2316,10 @@
         <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C33" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D33" t="s">
         <v>83</v>
@@ -2332,10 +2335,10 @@
         <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C34" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D34" t="s">
         <v>83</v>
@@ -2351,10 +2354,10 @@
         <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C35" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D35" t="s">
         <v>83</v>
@@ -2370,10 +2373,10 @@
         <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C36" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D36" t="s">
         <v>88</v>
@@ -2389,10 +2392,10 @@
         <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C37" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D37" t="s">
         <v>91</v>
@@ -2408,10 +2411,10 @@
         <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C38" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D38" t="s">
         <v>94</v>
@@ -2427,10 +2430,10 @@
         <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C39" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D39" t="s">
         <v>97</v>
@@ -2446,10 +2449,10 @@
         <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C40" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
@@ -2465,10 +2468,10 @@
         <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C41" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D41" t="s">
         <v>29</v>
@@ -2484,10 +2487,10 @@
         <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C42" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D42" t="s">
         <v>29</v>
@@ -2503,10 +2506,10 @@
         <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C43" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D43" t="s">
         <v>29</v>
@@ -2522,10 +2525,10 @@
         <v>103</v>
       </c>
       <c r="B44" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C44" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D44" t="s">
         <v>29</v>
@@ -2541,10 +2544,10 @@
         <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C45" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D45" t="s">
         <v>14</v>
@@ -2560,10 +2563,10 @@
         <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C46" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D46" t="s">
         <v>75</v>
@@ -2579,10 +2582,10 @@
         <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C47" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
@@ -2598,10 +2601,10 @@
         <v>107</v>
       </c>
       <c r="B48" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C48" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D48" t="s">
         <v>108</v>
@@ -2617,10 +2620,10 @@
         <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C49" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D49" t="s">
         <v>111</v>
@@ -2636,10 +2639,10 @@
         <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C50" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D50" t="s">
         <v>114</v>
@@ -2655,10 +2658,10 @@
         <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C51" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D51" t="s">
         <v>117</v>
@@ -2674,10 +2677,10 @@
         <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C52" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D52" t="s">
         <v>120</v>
@@ -2693,10 +2696,10 @@
         <v>122</v>
       </c>
       <c r="B53" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C53" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D53" t="s">
         <v>123</v>
@@ -2712,10 +2715,10 @@
         <v>125</v>
       </c>
       <c r="B54" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C54" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D54" t="s">
         <v>126</v>
@@ -2731,10 +2734,10 @@
         <v>128</v>
       </c>
       <c r="B55" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C55" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D55" t="s">
         <v>129</v>
@@ -2750,10 +2753,10 @@
         <v>131</v>
       </c>
       <c r="B56" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C56" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D56" t="s">
         <v>132</v>
@@ -2769,10 +2772,10 @@
         <v>134</v>
       </c>
       <c r="B57" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C57" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D57" t="s">
         <v>135</v>
@@ -2788,10 +2791,10 @@
         <v>137</v>
       </c>
       <c r="B58" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C58" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D58" t="s">
         <v>117</v>
@@ -2807,10 +2810,10 @@
         <v>138</v>
       </c>
       <c r="B59" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C59" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D59" t="s">
         <v>139</v>
@@ -2826,10 +2829,10 @@
         <v>141</v>
       </c>
       <c r="B60" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C60" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D60" t="s">
         <v>142</v>
@@ -2845,10 +2848,10 @@
         <v>144</v>
       </c>
       <c r="B61" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C61" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D61" t="s">
         <v>142</v>
@@ -2864,10 +2867,10 @@
         <v>145</v>
       </c>
       <c r="B62" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C62" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D62" t="s">
         <v>142</v>
@@ -2883,10 +2886,10 @@
         <v>146</v>
       </c>
       <c r="B63" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C63" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D63" t="s">
         <v>147</v>
@@ -2902,10 +2905,10 @@
         <v>149</v>
       </c>
       <c r="B64" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C64" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D64" t="s">
         <v>150</v>
@@ -2921,10 +2924,10 @@
         <v>152</v>
       </c>
       <c r="B65" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C65" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D65" t="s">
         <v>150</v>
@@ -2940,10 +2943,10 @@
         <v>153</v>
       </c>
       <c r="B66" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C66" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D66" t="s">
         <v>150</v>
@@ -2959,10 +2962,10 @@
         <v>154</v>
       </c>
       <c r="B67" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C67" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D67" t="s">
         <v>120</v>
@@ -2978,10 +2981,10 @@
         <v>155</v>
       </c>
       <c r="B68" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C68" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
@@ -2997,10 +3000,10 @@
         <v>156</v>
       </c>
       <c r="B69" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C69" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
@@ -3016,10 +3019,10 @@
         <v>157</v>
       </c>
       <c r="B70" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C70" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D70" t="s">
         <v>158</v>
@@ -3035,10 +3038,10 @@
         <v>160</v>
       </c>
       <c r="B71" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C71" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D71" t="s">
         <v>161</v>
@@ -3054,10 +3057,10 @@
         <v>163</v>
       </c>
       <c r="B72" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C72" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D72" t="s">
         <v>158</v>
@@ -3073,10 +3076,10 @@
         <v>164</v>
       </c>
       <c r="B73" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C73" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D73" t="s">
         <v>165</v>
@@ -3092,10 +3095,10 @@
         <v>167</v>
       </c>
       <c r="B74" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C74" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D74" t="s">
         <v>168</v>
@@ -3111,10 +3114,10 @@
         <v>170</v>
       </c>
       <c r="B75" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C75" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D75" t="s">
         <v>168</v>
@@ -3130,10 +3133,10 @@
         <v>171</v>
       </c>
       <c r="B76" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C76" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D76" t="s">
         <v>158</v>
@@ -3149,10 +3152,10 @@
         <v>172</v>
       </c>
       <c r="B77" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C77" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D77" t="s">
         <v>168</v>
@@ -3168,10 +3171,10 @@
         <v>173</v>
       </c>
       <c r="B78" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C78" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D78" t="s">
         <v>158</v>
@@ -3187,10 +3190,10 @@
         <v>174</v>
       </c>
       <c r="B79" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C79" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D79" t="s">
         <v>168</v>
@@ -3206,10 +3209,10 @@
         <v>175</v>
       </c>
       <c r="B80" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C80" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D80" t="s">
         <v>176</v>
@@ -3225,10 +3228,10 @@
         <v>178</v>
       </c>
       <c r="B81" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C81" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D81" t="s">
         <v>176</v>
@@ -3244,10 +3247,10 @@
         <v>179</v>
       </c>
       <c r="B82" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C82" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D82" t="s">
         <v>176</v>
@@ -3263,10 +3266,10 @@
         <v>180</v>
       </c>
       <c r="B83" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C83" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D83" t="s">
         <v>158</v>
@@ -3282,10 +3285,10 @@
         <v>181</v>
       </c>
       <c r="B84" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C84" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D84" t="s">
         <v>168</v>
@@ -3301,10 +3304,10 @@
         <v>182</v>
       </c>
       <c r="B85" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C85" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D85" t="s">
         <v>168</v>
@@ -3320,10 +3323,10 @@
         <v>183</v>
       </c>
       <c r="B86" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C86" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D86" t="s">
         <v>184</v>
@@ -3339,10 +3342,10 @@
         <v>186</v>
       </c>
       <c r="B87" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C87" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D87" t="s">
         <v>187</v>
@@ -3358,10 +3361,10 @@
         <v>189</v>
       </c>
       <c r="B88" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C88" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D88" t="s">
         <v>187</v>
@@ -3377,10 +3380,10 @@
         <v>190</v>
       </c>
       <c r="B89" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C89" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D89" t="s">
         <v>187</v>
@@ -3396,10 +3399,10 @@
         <v>191</v>
       </c>
       <c r="B90" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C90" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D90" t="s">
         <v>161</v>
@@ -3415,10 +3418,10 @@
         <v>192</v>
       </c>
       <c r="B91" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C91" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D91" t="s">
         <v>193</v>
@@ -3434,10 +3437,10 @@
         <v>195</v>
       </c>
       <c r="B92" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C92" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D92" t="s">
         <v>114</v>
@@ -3453,10 +3456,10 @@
         <v>196</v>
       </c>
       <c r="B93" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C93" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D93" t="s">
         <v>114</v>
@@ -3472,10 +3475,10 @@
         <v>197</v>
       </c>
       <c r="B94" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C94" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D94" t="s">
         <v>198</v>
@@ -3491,10 +3494,10 @@
         <v>200</v>
       </c>
       <c r="B95" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C95" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D95" t="s">
         <v>139</v>
@@ -3510,10 +3513,10 @@
         <v>201</v>
       </c>
       <c r="B96" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C96" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D96" t="s">
         <v>202</v>
@@ -3529,10 +3532,10 @@
         <v>204</v>
       </c>
       <c r="B97" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C97" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D97" t="s">
         <v>202</v>
@@ -3548,10 +3551,10 @@
         <v>205</v>
       </c>
       <c r="B98" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C98" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D98" t="s">
         <v>206</v>
@@ -3567,10 +3570,10 @@
         <v>208</v>
       </c>
       <c r="B99" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C99" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D99" t="s">
         <v>209</v>
@@ -3586,10 +3589,10 @@
         <v>211</v>
       </c>
       <c r="B100" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C100" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D100" t="s">
         <v>212</v>
@@ -3605,10 +3608,10 @@
         <v>214</v>
       </c>
       <c r="B101" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C101" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D101" t="s">
         <v>215</v>
@@ -3624,10 +3627,10 @@
         <v>217</v>
       </c>
       <c r="B102" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C102" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D102" t="s">
         <v>218</v>
@@ -3643,10 +3646,10 @@
         <v>220</v>
       </c>
       <c r="B103" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C103" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D103" t="s">
         <v>221</v>
@@ -3662,10 +3665,10 @@
         <v>223</v>
       </c>
       <c r="B104" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C104" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D104" t="s">
         <v>221</v>
@@ -3681,10 +3684,10 @@
         <v>224</v>
       </c>
       <c r="B105" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C105" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D105" t="s">
         <v>225</v>
@@ -3700,10 +3703,10 @@
         <v>227</v>
       </c>
       <c r="B106" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C106" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D106" t="s">
         <v>225</v>
@@ -3719,10 +3722,10 @@
         <v>228</v>
       </c>
       <c r="B107" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C107" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D107" t="s">
         <v>225</v>
@@ -3738,10 +3741,10 @@
         <v>229</v>
       </c>
       <c r="B108" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C108" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D108" t="s">
         <v>225</v>
@@ -3757,10 +3760,10 @@
         <v>230</v>
       </c>
       <c r="B109" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C109" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D109" t="s">
         <v>20</v>
@@ -3776,10 +3779,10 @@
         <v>231</v>
       </c>
       <c r="B110" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C110" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D110" t="s">
         <v>232</v>
@@ -3795,10 +3798,10 @@
         <v>234</v>
       </c>
       <c r="B111" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C111" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D111" t="s">
         <v>235</v>
@@ -3814,10 +3817,10 @@
         <v>237</v>
       </c>
       <c r="B112" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C112" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D112" t="s">
         <v>235</v>
@@ -3833,10 +3836,10 @@
         <v>238</v>
       </c>
       <c r="B113" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C113" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D113" t="s">
         <v>235</v>
@@ -3852,10 +3855,10 @@
         <v>239</v>
       </c>
       <c r="B114" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C114" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D114" t="s">
         <v>235</v>
@@ -3871,10 +3874,10 @@
         <v>240</v>
       </c>
       <c r="B115" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C115" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D115" t="s">
         <v>241</v>
@@ -3890,10 +3893,10 @@
         <v>243</v>
       </c>
       <c r="B116" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C116" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D116" t="s">
         <v>241</v>
@@ -3909,10 +3912,10 @@
         <v>244</v>
       </c>
       <c r="B117" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C117" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D117" t="s">
         <v>245</v>
@@ -3928,10 +3931,10 @@
         <v>247</v>
       </c>
       <c r="B118" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C118" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D118" t="s">
         <v>248</v>
@@ -3947,10 +3950,10 @@
         <v>250</v>
       </c>
       <c r="B119" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C119" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D119" t="s">
         <v>248</v>
@@ -3966,10 +3969,10 @@
         <v>251</v>
       </c>
       <c r="B120" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C120" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D120" t="s">
         <v>248</v>
@@ -3985,10 +3988,10 @@
         <v>252</v>
       </c>
       <c r="B121" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C121" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D121" t="s">
         <v>253</v>
@@ -4004,10 +4007,10 @@
         <v>255</v>
       </c>
       <c r="B122" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C122" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D122" t="s">
         <v>253</v>
@@ -4023,10 +4026,10 @@
         <v>256</v>
       </c>
       <c r="B123" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C123" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D123" t="s">
         <v>257</v>
@@ -4042,10 +4045,10 @@
         <v>259</v>
       </c>
       <c r="B124" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C124" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D124" t="s">
         <v>257</v>
@@ -4061,10 +4064,10 @@
         <v>260</v>
       </c>
       <c r="B125" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C125" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D125" t="s">
         <v>257</v>
@@ -4080,10 +4083,10 @@
         <v>261</v>
       </c>
       <c r="B126" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C126" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D126" t="s">
         <v>248</v>
@@ -4099,10 +4102,10 @@
         <v>262</v>
       </c>
       <c r="B127" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C127" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D127" t="s">
         <v>263</v>
@@ -4118,10 +4121,10 @@
         <v>265</v>
       </c>
       <c r="B128" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C128" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D128" t="s">
         <v>158</v>
@@ -4137,10 +4140,10 @@
         <v>266</v>
       </c>
       <c r="B129" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C129" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D129" t="s">
         <v>29</v>
@@ -4156,10 +4159,10 @@
         <v>267</v>
       </c>
       <c r="B130" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C130" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D130" t="s">
         <v>120</v>
@@ -4175,10 +4178,10 @@
         <v>268</v>
       </c>
       <c r="B131" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C131" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D131" t="s">
         <v>269</v>
@@ -4187,7 +4190,7 @@
         <v>270</v>
       </c>
       <c r="F131" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G131" t="s">
         <v>271</v>
@@ -4201,10 +4204,10 @@
         <v>273</v>
       </c>
       <c r="B132" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C132" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D132" t="s">
         <v>35</v>
@@ -4220,10 +4223,10 @@
         <v>274</v>
       </c>
       <c r="B133" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C133" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D133" t="s">
         <v>275</v>
@@ -4239,10 +4242,10 @@
         <v>277</v>
       </c>
       <c r="B134" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C134" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D134" t="s">
         <v>278</v>
@@ -4258,10 +4261,10 @@
         <v>280</v>
       </c>
       <c r="B135" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C135" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D135" t="s">
         <v>281</v>
@@ -4277,10 +4280,10 @@
         <v>283</v>
       </c>
       <c r="B136" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C136" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D136" t="s">
         <v>281</v>
@@ -4296,10 +4299,10 @@
         <v>285</v>
       </c>
       <c r="B137" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C137" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D137" t="s">
         <v>281</v>
@@ -4315,10 +4318,10 @@
         <v>287</v>
       </c>
       <c r="B138" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C138" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D138" t="s">
         <v>221</v>
@@ -4334,10 +4337,10 @@
         <v>288</v>
       </c>
       <c r="B139" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C139" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D139" t="s">
         <v>289</v>
@@ -4353,10 +4356,10 @@
         <v>291</v>
       </c>
       <c r="B140" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C140" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D140" t="s">
         <v>120</v>
@@ -4372,10 +4375,10 @@
         <v>292</v>
       </c>
       <c r="B141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C141" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D141" t="s">
         <v>123</v>
@@ -4391,10 +4394,10 @@
         <v>293</v>
       </c>
       <c r="B142" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C142" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D142" t="s">
         <v>117</v>
@@ -4410,10 +4413,10 @@
         <v>294</v>
       </c>
       <c r="B143" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C143" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D143" t="s">
         <v>35</v>
@@ -4429,10 +4432,10 @@
         <v>295</v>
       </c>
       <c r="B144" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C144" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D144" t="s">
         <v>38</v>
@@ -4448,10 +4451,10 @@
         <v>296</v>
       </c>
       <c r="B145" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C145" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D145" t="s">
         <v>117</v>
@@ -4467,10 +4470,10 @@
         <v>297</v>
       </c>
       <c r="B146" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C146" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D146" t="s">
         <v>35</v>
@@ -4486,10 +4489,10 @@
         <v>298</v>
       </c>
       <c r="B147" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C147" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D147" t="s">
         <v>299</v>
@@ -4505,10 +4508,10 @@
         <v>301</v>
       </c>
       <c r="B148" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C148" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D148" t="s">
         <v>302</v>
@@ -4524,10 +4527,10 @@
         <v>304</v>
       </c>
       <c r="B149" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C149" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D149" t="s">
         <v>302</v>
@@ -4543,10 +4546,10 @@
         <v>305</v>
       </c>
       <c r="B150" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C150" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D150" t="s">
         <v>306</v>
@@ -4562,10 +4565,10 @@
         <v>308</v>
       </c>
       <c r="B151" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C151" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D151" t="s">
         <v>150</v>
@@ -4581,10 +4584,10 @@
         <v>309</v>
       </c>
       <c r="B152" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C152" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D152" t="s">
         <v>310</v>
@@ -4600,10 +4603,10 @@
         <v>312</v>
       </c>
       <c r="B153" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C153" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D153" t="s">
         <v>313</v>
@@ -4619,10 +4622,10 @@
         <v>315</v>
       </c>
       <c r="B154" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C154" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D154" t="s">
         <v>316</v>
@@ -4638,10 +4641,10 @@
         <v>318</v>
       </c>
       <c r="B155" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C155" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D155" t="s">
         <v>316</v>
@@ -4657,10 +4660,10 @@
         <v>319</v>
       </c>
       <c r="B156" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C156" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D156" t="s">
         <v>75</v>
@@ -4676,10 +4679,10 @@
         <v>320</v>
       </c>
       <c r="B157" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C157" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D157" t="s">
         <v>111</v>
@@ -4695,10 +4698,10 @@
         <v>321</v>
       </c>
       <c r="B158" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C158" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D158" t="s">
         <v>221</v>
@@ -4714,10 +4717,10 @@
         <v>322</v>
       </c>
       <c r="B159" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C159" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D159" t="s">
         <v>150</v>
@@ -4733,10 +4736,10 @@
         <v>323</v>
       </c>
       <c r="B160" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C160" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D160" t="s">
         <v>150</v>
@@ -4752,10 +4755,10 @@
         <v>324</v>
       </c>
       <c r="B161" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C161" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D161" t="s">
         <v>150</v>
@@ -4771,10 +4774,10 @@
         <v>325</v>
       </c>
       <c r="B162" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C162" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D162" t="s">
         <v>108</v>
@@ -4790,10 +4793,10 @@
         <v>326</v>
       </c>
       <c r="B163" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C163" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D163" t="s">
         <v>327</v>
@@ -4809,10 +4812,10 @@
         <v>329</v>
       </c>
       <c r="B164" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C164" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D164" t="s">
         <v>289</v>
@@ -4828,10 +4831,10 @@
         <v>330</v>
       </c>
       <c r="B165" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C165" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D165" t="s">
         <v>331</v>
@@ -4847,10 +4850,10 @@
         <v>333</v>
       </c>
       <c r="B166" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C166" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D166" t="s">
         <v>334</v>
@@ -4866,10 +4869,10 @@
         <v>336</v>
       </c>
       <c r="B167" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C167" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D167" t="s">
         <v>334</v>
@@ -4885,10 +4888,10 @@
         <v>337</v>
       </c>
       <c r="B168" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C168" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D168" t="s">
         <v>338</v>
@@ -4904,10 +4907,10 @@
         <v>340</v>
       </c>
       <c r="B169" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C169" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D169" t="s">
         <v>341</v>
@@ -4923,10 +4926,10 @@
         <v>343</v>
       </c>
       <c r="B170" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C170" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D170" t="s">
         <v>344</v>
@@ -4942,10 +4945,10 @@
         <v>346</v>
       </c>
       <c r="B171" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C171" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D171" t="s">
         <v>347</v>
@@ -4961,10 +4964,10 @@
         <v>349</v>
       </c>
       <c r="B172" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C172" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D172" t="s">
         <v>139</v>
@@ -4980,10 +4983,10 @@
         <v>350</v>
       </c>
       <c r="B173" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C173" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D173" t="s">
         <v>139</v>
@@ -4999,10 +5002,10 @@
         <v>351</v>
       </c>
       <c r="B174" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C174" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D174" t="s">
         <v>352</v>
@@ -5018,10 +5021,10 @@
         <v>354</v>
       </c>
       <c r="B175" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C175" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D175" t="s">
         <v>355</v>
@@ -5037,10 +5040,10 @@
         <v>357</v>
       </c>
       <c r="B176" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C176" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D176" t="s">
         <v>355</v>
@@ -5056,10 +5059,10 @@
         <v>358</v>
       </c>
       <c r="B177" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C177" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D177" t="s">
         <v>359</v>
@@ -5075,10 +5078,10 @@
         <v>361</v>
       </c>
       <c r="B178" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C178" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D178" t="s">
         <v>29</v>
@@ -5094,10 +5097,10 @@
         <v>362</v>
       </c>
       <c r="B179" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C179" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D179" t="s">
         <v>29</v>
@@ -5113,10 +5116,10 @@
         <v>363</v>
       </c>
       <c r="B180" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C180" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D180" t="s">
         <v>29</v>
@@ -5132,10 +5135,10 @@
         <v>364</v>
       </c>
       <c r="B181" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C181" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D181" t="s">
         <v>29</v>
@@ -5151,10 +5154,10 @@
         <v>365</v>
       </c>
       <c r="B182" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C182" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D182" t="s">
         <v>29</v>
@@ -5170,10 +5173,10 @@
         <v>366</v>
       </c>
       <c r="B183" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C183" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D183" t="s">
         <v>29</v>
@@ -5189,10 +5192,10 @@
         <v>367</v>
       </c>
       <c r="B184" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C184" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D184" t="s">
         <v>29</v>
@@ -5208,10 +5211,10 @@
         <v>368</v>
       </c>
       <c r="B185" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C185" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D185" t="s">
         <v>29</v>
@@ -5227,10 +5230,10 @@
         <v>369</v>
       </c>
       <c r="B186" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C186" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D186" t="s">
         <v>29</v>
@@ -5246,10 +5249,10 @@
         <v>370</v>
       </c>
       <c r="B187" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C187" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D187" t="s">
         <v>29</v>
@@ -5265,10 +5268,10 @@
         <v>371</v>
       </c>
       <c r="B188" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C188" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D188" t="s">
         <v>14</v>
@@ -5284,10 +5287,10 @@
         <v>372</v>
       </c>
       <c r="B189" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C189" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D189" t="s">
         <v>373</v>
@@ -5303,10 +5306,10 @@
         <v>375</v>
       </c>
       <c r="B190" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C190" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D190" t="s">
         <v>376</v>
@@ -5322,10 +5325,10 @@
         <v>378</v>
       </c>
       <c r="B191" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C191" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D191" t="s">
         <v>376</v>
@@ -5341,10 +5344,10 @@
         <v>379</v>
       </c>
       <c r="B192" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C192" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D192" t="s">
         <v>380</v>
@@ -5360,10 +5363,10 @@
         <v>382</v>
       </c>
       <c r="B193" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C193" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D193" t="s">
         <v>383</v>
@@ -5379,10 +5382,10 @@
         <v>385</v>
       </c>
       <c r="B194" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C194" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D194" t="s">
         <v>386</v>
@@ -5398,10 +5401,10 @@
         <v>388</v>
       </c>
       <c r="B195" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C195" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D195" t="s">
         <v>389</v>
@@ -5417,10 +5420,10 @@
         <v>391</v>
       </c>
       <c r="B196" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C196" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D196" t="s">
         <v>392</v>
@@ -5436,10 +5439,10 @@
         <v>394</v>
       </c>
       <c r="B197" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C197" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D197" t="s">
         <v>395</v>
@@ -5455,10 +5458,10 @@
         <v>397</v>
       </c>
       <c r="B198" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C198" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D198" t="s">
         <v>398</v>
@@ -5474,10 +5477,10 @@
         <v>400</v>
       </c>
       <c r="B199" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C199" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D199" t="s">
         <v>401</v>
@@ -5493,10 +5496,10 @@
         <v>403</v>
       </c>
       <c r="B200" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C200" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D200" t="s">
         <v>404</v>
@@ -5512,10 +5515,10 @@
         <v>406</v>
       </c>
       <c r="B201" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C201" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D201" t="s">
         <v>407</v>
@@ -5531,10 +5534,10 @@
         <v>409</v>
       </c>
       <c r="B202" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C202" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D202" t="s">
         <v>410</v>
@@ -5550,10 +5553,10 @@
         <v>412</v>
       </c>
       <c r="B203" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C203" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D203" t="s">
         <v>413</v>
@@ -5563,6 +5566,22 @@
       </c>
       <c r="G203"/>
       <c r="H203"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>415</v>
+      </c>
+      <c r="B204" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" t="s">
+        <v>59</v>
+      </c>
+      <c r="E204" t="s">
+        <v>60</v>
+      </c>
+      <c r="G204"/>
+      <c r="H204"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.229 Patch 3</t>
+    <t xml:space="preserve">EA 23.237 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
